--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Liquidity_GAP.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: September, 2021        Evaluation Date: September 30, 2021</t>
   </si>
   <si>
-    <t>Printed on: 11/03/21 1:54:28 PM</t>
+    <t>Printed on: 01/06/22 4:54:44 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -9955,31 +9955,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>41648.3041833218</v>
+        <v>41648.218932113974</v>
       </c>
       <c r="C9" s="231">
-        <v>6561.4642969881752</v>
+        <v>6561.4794623943535</v>
       </c>
       <c r="D9" s="231">
-        <v>15488.174326854245</v>
+        <v>15488.028120807301</v>
       </c>
       <c r="E9" s="231">
-        <v>21916.910749017712</v>
+        <v>21916.539835160293</v>
       </c>
       <c r="F9" s="231">
-        <v>13600.370637969601</v>
+        <v>13598.887876642515</v>
       </c>
       <c r="G9" s="231">
-        <v>16305.688748726359</v>
+        <v>16305.436819589851</v>
       </c>
       <c r="H9" s="231">
-        <v>14264.767795027497</v>
+        <v>14267.375843365977</v>
       </c>
       <c r="I9" s="231">
-        <v>4798.0102079663993</v>
+        <v>4797.707016625156</v>
       </c>
       <c r="J9" s="231">
-        <v>4605.3090541282145</v>
+        <v>4605.3260933005658</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -10005,28 +10005,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>41648.3041833218</v>
+        <v>41648.218932113974</v>
       </c>
       <c r="C11" s="231">
-        <v>48209.768480309976</v>
+        <v>48209.698394508327</v>
       </c>
       <c r="D11" s="231">
-        <v>63697.942807164218</v>
+        <v>63697.726515315626</v>
       </c>
       <c r="E11" s="231">
-        <v>85614.85355618193</v>
+        <v>85614.266350475926</v>
       </c>
       <c r="F11" s="231">
-        <v>99215.224194151524</v>
+        <v>99213.154227118444</v>
       </c>
       <c r="G11" s="231">
-        <v>115520.91294287788</v>
+        <v>115518.5910467083</v>
       </c>
       <c r="H11" s="231">
-        <v>129785.68073790538</v>
+        <v>129785.96689007428</v>
       </c>
       <c r="I11" s="231">
-        <v>134583.69094587179</v>
+        <v>134583.67390669943</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -10143,31 +10143,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>29403.472570024052</v>
+        <v>29403.387318816225</v>
       </c>
       <c r="C15" s="231">
-        <v>-4282.3179832992755</v>
+        <v>-4282.3028178930972</v>
       </c>
       <c r="D15" s="231">
-        <v>-1471.7643382248643</v>
+        <v>-1471.9105442718083</v>
       </c>
       <c r="E15" s="231">
-        <v>9492.1213578590523</v>
+        <v>9491.7504440016328</v>
       </c>
       <c r="F15" s="231">
-        <v>6657.3080986348514</v>
+        <v>6655.825337307765</v>
       </c>
       <c r="G15" s="231">
-        <v>9731.01880261373</v>
+        <v>9730.7668734772233</v>
       </c>
       <c r="H15" s="231">
-        <v>6343.521268064299</v>
+        <v>6346.1293164027784</v>
       </c>
       <c r="I15" s="231">
-        <v>-45684.897231909294</v>
+        <v>-45685.200423250535</v>
       </c>
       <c r="J15" s="231">
-        <v>-10188.462543762551</v>
+        <v>-10188.4455045902</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -10176,31 +10176,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.21124853666614496</v>
+        <v>0.21124792418090671</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.030766209853503333</v>
+        <v>-0.030766100898009879</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.010573855248797422</v>
+        <v>-0.01057490566260127</v>
       </c>
       <c r="E16" s="236">
-        <v>0.068195916041203342</v>
+        <v>0.068193251219576492</v>
       </c>
       <c r="F16" s="237">
-        <v>0.047829268826091509</v>
+        <v>0.047818615963242529</v>
       </c>
       <c r="G16" s="236">
-        <v>0.069912268948075854</v>
+        <v>0.069910458969295139</v>
       </c>
       <c r="H16" s="236">
-        <v>0.045574874940291971</v>
+        <v>0.045593612400425164</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.3282220378902736</v>
+        <v>-0.32822421616112296</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.073198762429233274</v>
+        <v>-0.073198640011712127</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -10209,28 +10209,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>29403.472570024052</v>
+        <v>29403.387318816225</v>
       </c>
       <c r="C17" s="231">
-        <v>25121.154586724777</v>
+        <v>25121.084500923127</v>
       </c>
       <c r="D17" s="231">
-        <v>23649.390248499913</v>
+        <v>23649.173956651321</v>
       </c>
       <c r="E17" s="231">
-        <v>33141.511606358967</v>
+        <v>33140.924400652963</v>
       </c>
       <c r="F17" s="231">
-        <v>39798.81970499381</v>
+        <v>39796.74973796073</v>
       </c>
       <c r="G17" s="231">
-        <v>49529.838507607536</v>
+        <v>49527.516611437954</v>
       </c>
       <c r="H17" s="231">
-        <v>55873.359775671837</v>
+        <v>55873.645927840742</v>
       </c>
       <c r="I17" s="231">
-        <v>10188.462543762551</v>
+        <v>10188.4455045902</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -10242,28 +10242,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.21124853666614496</v>
+        <v>0.21124792418090671</v>
       </c>
       <c r="C18" s="236">
-        <v>0.18048232681264165</v>
+        <v>0.18048182328289683</v>
       </c>
       <c r="D18" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E18" s="236">
-        <v>0.23810438760504757</v>
+        <v>0.23810016883987215</v>
       </c>
       <c r="F18" s="237">
-        <v>0.285933656431139</v>
+        <v>0.28591878480311467</v>
       </c>
       <c r="G18" s="236">
-        <v>0.35584592537921489</v>
+        <v>0.35582924377240988</v>
       </c>
       <c r="H18" s="236">
-        <v>0.40142080031950683</v>
+        <v>0.40142285617283507</v>
       </c>
       <c r="I18" s="236">
-        <v>0.073198762429233274</v>
+        <v>0.073198640011712127</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -10275,31 +10275,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.4012966040375932</v>
+        <v>3.4012896418178973</v>
       </c>
       <c r="C19" s="236">
-        <v>0.60509000710167726</v>
+        <v>0.60509140563641228</v>
       </c>
       <c r="D19" s="236">
-        <v>0.91322112849056114</v>
+        <v>0.91321250781982455</v>
       </c>
       <c r="E19" s="236">
-        <v>1.7639663787471149</v>
+        <v>1.7639365260191737</v>
       </c>
       <c r="F19" s="237">
-        <v>1.9588431705632774</v>
+        <v>1.958629610434921</v>
       </c>
       <c r="G19" s="236">
-        <v>2.4800771570848723</v>
+        <v>2.4800388389428862</v>
       </c>
       <c r="H19" s="236">
-        <v>1.8008236136158033</v>
+        <v>1.801152860828297</v>
       </c>
       <c r="I19" s="236">
-        <v>0.095042271756648519</v>
+        <v>0.09503626593494334</v>
       </c>
       <c r="J19" s="236">
-        <v>0.31130053777393862</v>
+        <v>0.31130168955408061</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -10308,28 +10308,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.4012966040375932</v>
+        <v>3.4012896418178973</v>
       </c>
       <c r="C20" s="236">
-        <v>2.0880321660931012</v>
+        <v>2.088029130579494</v>
       </c>
       <c r="D20" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E20" s="236">
-        <v>1.6315875904768971</v>
+        <v>1.6315763999240529</v>
       </c>
       <c r="F20" s="237">
-        <v>1.6698288132237331</v>
+        <v>1.669793974915174</v>
       </c>
       <c r="G20" s="236">
-        <v>1.7505536003386431</v>
+        <v>1.7505184153353761</v>
       </c>
       <c r="H20" s="236">
-        <v>1.7559410805706</v>
+        <v>1.7559449520789654</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0819039658886931</v>
+        <v>1.0819038289126004</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -10372,28 +10372,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -10403,28 +10403,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -10725,31 +10725,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>36.520344392931996</v>
+        <v>36.513815456975394</v>
       </c>
       <c r="C49" s="246">
-        <v>34.6916445441734</v>
+        <v>34.6891394333685</v>
       </c>
       <c r="D49" s="246">
-        <v>72.635395007641691</v>
+        <v>72.6262501823092</v>
       </c>
       <c r="E49" s="246">
-        <v>128.415608132419</v>
+        <v>128.405403273016</v>
       </c>
       <c r="F49" s="246">
-        <v>106.547401814405</v>
+        <v>106.528413516866</v>
       </c>
       <c r="G49" s="246">
-        <v>187.364850928599</v>
+        <v>187.385462338751</v>
       </c>
       <c r="H49" s="246">
-        <v>277.892986737788</v>
+        <v>277.915362464038</v>
       </c>
       <c r="I49" s="246">
-        <v>136.74077082872998</v>
+        <v>136.745155721363</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613311879</v>
+        <v>26.190997613312902</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -10760,31 +10760,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>36.520344392931996</v>
+        <v>36.513815456975394</v>
       </c>
       <c r="C50" s="248">
-        <v>34.6916445441734</v>
+        <v>34.6891394333685</v>
       </c>
       <c r="D50" s="248">
-        <v>72.635395007641691</v>
+        <v>72.6262501823092</v>
       </c>
       <c r="E50" s="248">
-        <v>128.415608132419</v>
+        <v>128.405403273016</v>
       </c>
       <c r="F50" s="248">
-        <v>106.547401814405</v>
+        <v>106.528413516866</v>
       </c>
       <c r="G50" s="248">
-        <v>187.364850928599</v>
+        <v>187.385462338751</v>
       </c>
       <c r="H50" s="248">
-        <v>277.892986737788</v>
+        <v>277.915362464038</v>
       </c>
       <c r="I50" s="248">
-        <v>136.74077082872998</v>
+        <v>136.745155721363</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613311879</v>
+        <v>26.190997613312902</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -10795,31 +10795,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>5.0446385403532</v>
+        <v>5.0430224326158006</v>
       </c>
       <c r="C51" s="246">
-        <v>4.7389647671094</v>
+        <v>4.7385288568821995</v>
       </c>
       <c r="D51" s="246">
-        <v>9.9877360672276989</v>
+        <v>9.9867142479737</v>
       </c>
       <c r="E51" s="246">
-        <v>18.554619031637</v>
+        <v>18.5505438057188</v>
       </c>
       <c r="F51" s="246">
-        <v>17.417044228772102</v>
+        <v>17.4151842863462</v>
       </c>
       <c r="G51" s="246">
-        <v>30.935196588363098</v>
+        <v>30.9537022078445</v>
       </c>
       <c r="H51" s="246">
-        <v>41.3535202403584</v>
+        <v>41.3410144615565</v>
       </c>
       <c r="I51" s="246">
-        <v>13.710235722338801</v>
+        <v>13.7132448872218</v>
       </c>
       <c r="J51" s="246">
-        <v>2.2580448138402858</v>
+        <v>2.2580448138404847</v>
       </c>
       <c r="K51" s="246">
         <v>144</v>
@@ -10830,31 +10830,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>5.0446385403532</v>
+        <v>5.0430224326158006</v>
       </c>
       <c r="C52" s="248">
-        <v>4.7389647671094</v>
+        <v>4.7385288568821995</v>
       </c>
       <c r="D52" s="248">
-        <v>9.9877360672276989</v>
+        <v>9.9867142479737</v>
       </c>
       <c r="E52" s="248">
-        <v>18.554619031637</v>
+        <v>18.5505438057188</v>
       </c>
       <c r="F52" s="248">
-        <v>17.417044228772102</v>
+        <v>17.4151842863462</v>
       </c>
       <c r="G52" s="248">
-        <v>30.935196588363098</v>
+        <v>30.9537022078445</v>
       </c>
       <c r="H52" s="248">
-        <v>41.3535202403584</v>
+        <v>41.3410144615565</v>
       </c>
       <c r="I52" s="248">
-        <v>13.710235722338801</v>
+        <v>13.7132448872218</v>
       </c>
       <c r="J52" s="248">
-        <v>2.2580448138402858</v>
+        <v>2.2580448138404847</v>
       </c>
       <c r="K52" s="248">
         <v>144</v>
@@ -10865,31 +10865,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>41.564982933285194</v>
+        <v>41.556837889591193</v>
       </c>
       <c r="C53" s="248">
-        <v>39.4306093112828</v>
+        <v>39.4276682902507</v>
       </c>
       <c r="D53" s="248">
-        <v>82.623131074869391</v>
+        <v>82.6129644302829</v>
       </c>
       <c r="E53" s="248">
-        <v>146.970227164056</v>
+        <v>146.95594707873482</v>
       </c>
       <c r="F53" s="248">
-        <v>123.96444604317711</v>
+        <v>123.94359780321221</v>
       </c>
       <c r="G53" s="248">
-        <v>218.30004751696208</v>
+        <v>218.3391645465955</v>
       </c>
       <c r="H53" s="248">
-        <v>319.24650697814639</v>
+        <v>319.25637692559451</v>
       </c>
       <c r="I53" s="248">
-        <v>150.45100655106879</v>
+        <v>150.45840060858481</v>
       </c>
       <c r="J53" s="248">
-        <v>28.449042427152335</v>
+        <v>28.449042427153472</v>
       </c>
       <c r="K53" s="248">
         <v>1151</v>
@@ -10900,31 +10900,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2041.4205814854313</v>
+        <v>2041.4124364417373</v>
       </c>
       <c r="C54" s="248">
-        <v>39.4306093112828</v>
+        <v>39.4276682902507</v>
       </c>
       <c r="D54" s="248">
-        <v>82.623131074869391</v>
+        <v>82.6129644302829</v>
       </c>
       <c r="E54" s="248">
-        <v>743.9400847704004</v>
+        <v>743.92580468507924</v>
       </c>
       <c r="F54" s="248">
-        <v>753.81288499708478</v>
+        <v>753.79203675711983</v>
       </c>
       <c r="G54" s="248">
-        <v>733.84563686026843</v>
+        <v>733.884753889902</v>
       </c>
       <c r="H54" s="248">
-        <v>319.24650697814639</v>
+        <v>319.25637692559451</v>
       </c>
       <c r="I54" s="248">
-        <v>150.45100655106879</v>
+        <v>150.45840060858481</v>
       </c>
       <c r="J54" s="248">
-        <v>33.229557971446411</v>
+        <v>33.229557971447321</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -11110,31 +11110,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>4814.2237485360993</v>
+        <v>4814.14664237196</v>
       </c>
       <c r="C60" s="246">
-        <v>4456.14872213824</v>
+        <v>4456.1668285654505</v>
       </c>
       <c r="D60" s="246">
-        <v>9101.1427519813915</v>
+        <v>9101.00671257903</v>
       </c>
       <c r="E60" s="246">
-        <v>13747.4171432317</v>
+        <v>13747.0605094596</v>
       </c>
       <c r="F60" s="246">
-        <v>8253.26256976943</v>
+        <v>8251.80065668231</v>
       </c>
       <c r="G60" s="246">
-        <v>9348.984526863831</v>
+        <v>9348.69348069769</v>
       </c>
       <c r="H60" s="246">
-        <v>7762.06623031409</v>
+        <v>7764.66440870512</v>
       </c>
       <c r="I60" s="246">
-        <v>1637.5647658806101</v>
+        <v>1637.25418048185</v>
       </c>
       <c r="J60" s="246">
-        <v>288.18954128459882</v>
+        <v>288.20658045699383</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -11180,31 +11180,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>4900.3531905987047</v>
+        <v>4900.2760844345648</v>
       </c>
       <c r="C62" s="248">
-        <v>4533.5042078347087</v>
+        <v>4533.5223142619188</v>
       </c>
       <c r="D62" s="248">
-        <v>9225.6106180231654</v>
+        <v>9225.4745786208041</v>
       </c>
       <c r="E62" s="248">
-        <v>13884.505951638303</v>
+        <v>13884.149317866202</v>
       </c>
       <c r="F62" s="248">
-        <v>8327.87351734015</v>
+        <v>8326.4116042530277</v>
       </c>
       <c r="G62" s="248">
-        <v>9413.32216445606</v>
+        <v>9413.03111828992</v>
       </c>
       <c r="H62" s="248">
-        <v>7792.3778345044757</v>
+        <v>7794.9760128955058</v>
       </c>
       <c r="I62" s="248">
-        <v>1639.2492362812909</v>
+        <v>1638.9386508825307</v>
       </c>
       <c r="J62" s="248">
-        <v>294.20327932313376</v>
+        <v>294.2203184955215</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -11215,31 +11215,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>5062.705179525401</v>
+        <v>5062.6280733612621</v>
       </c>
       <c r="C63" s="248">
-        <v>4681.9409949335022</v>
+        <v>4681.9591013607123</v>
       </c>
       <c r="D63" s="248">
-        <v>9485.2300243139052</v>
+        <v>9485.0939849115439</v>
       </c>
       <c r="E63" s="248">
-        <v>14276.799465199831</v>
+        <v>14276.44283142773</v>
       </c>
       <c r="F63" s="248">
-        <v>8600.36555845523</v>
+        <v>8598.903645368111</v>
       </c>
       <c r="G63" s="248">
-        <v>9730.6393650829814</v>
+        <v>9730.34831891684</v>
       </c>
       <c r="H63" s="248">
-        <v>8018.671866577155</v>
+        <v>8021.2700449681852</v>
       </c>
       <c r="I63" s="248">
-        <v>1639.2492362812909</v>
+        <v>1638.9386508825307</v>
       </c>
       <c r="J63" s="248">
-        <v>321.39830963069835</v>
+        <v>321.41534880307881</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -11355,31 +11355,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>6281.139625844603</v>
+        <v>6281.0625196804631</v>
       </c>
       <c r="C67" s="248">
-        <v>5436.3717656025783</v>
+        <v>5436.3898720297884</v>
       </c>
       <c r="D67" s="248">
-        <v>12538.665438155991</v>
+        <v>12538.529398753633</v>
       </c>
       <c r="E67" s="248">
-        <v>17335.818918887257</v>
+        <v>17335.462285115162</v>
       </c>
       <c r="F67" s="248">
-        <v>10685.167669799965</v>
+        <v>10683.705756712845</v>
       </c>
       <c r="G67" s="248">
-        <v>12605.954985124905</v>
+        <v>12605.663938958764</v>
       </c>
       <c r="H67" s="248">
-        <v>11601.95149135563</v>
+        <v>11604.549669746661</v>
       </c>
       <c r="I67" s="248">
-        <v>4317.4450548263976</v>
+        <v>4317.1344694276377</v>
       </c>
       <c r="J67" s="248">
-        <v>568.485050402669</v>
+        <v>568.50208957504947</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -11635,31 +11635,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>7353.8836018363791</v>
+        <v>7353.8064956722383</v>
       </c>
       <c r="C75" s="248">
-        <v>6522.0336876768924</v>
+        <v>6522.0517941041026</v>
       </c>
       <c r="D75" s="248">
-        <v>15405.551195779375</v>
+        <v>15405.415156377017</v>
       </c>
       <c r="E75" s="248">
-        <v>21172.97066424731</v>
+        <v>21172.614030475215</v>
       </c>
       <c r="F75" s="248">
-        <v>12846.557752972518</v>
+        <v>12845.095839885396</v>
       </c>
       <c r="G75" s="248">
-        <v>15571.84311186609</v>
+        <v>15571.552065699951</v>
       </c>
       <c r="H75" s="248">
-        <v>13945.521288049351</v>
+        <v>13948.119466440381</v>
       </c>
       <c r="I75" s="248">
-        <v>4647.55920141533</v>
+        <v>4647.2486160165708</v>
       </c>
       <c r="J75" s="248">
-        <v>900.079496156759</v>
+        <v>900.096535329154</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -11810,31 +11810,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>41648.3041833218</v>
+        <v>41648.218932113974</v>
       </c>
       <c r="C80" s="248">
-        <v>6561.4642969881752</v>
+        <v>6561.4794623943535</v>
       </c>
       <c r="D80" s="248">
-        <v>15488.174326854245</v>
+        <v>15488.028120807301</v>
       </c>
       <c r="E80" s="248">
-        <v>21916.910749017712</v>
+        <v>21916.539835160293</v>
       </c>
       <c r="F80" s="248">
-        <v>13600.370637969601</v>
+        <v>13598.887876642515</v>
       </c>
       <c r="G80" s="248">
-        <v>16305.688748726359</v>
+        <v>16305.436819589851</v>
       </c>
       <c r="H80" s="248">
-        <v>14264.767795027497</v>
+        <v>14267.375843365977</v>
       </c>
       <c r="I80" s="248">
-        <v>4798.0102079663993</v>
+        <v>4797.707016625156</v>
       </c>
       <c r="J80" s="248">
-        <v>4605.3090541282145</v>
+        <v>4605.3260933005658</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -12190,31 +12190,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>29403.472570024052</v>
+        <v>29403.387318816222</v>
       </c>
       <c r="C94" s="248">
-        <v>-4282.3179832992746</v>
+        <v>-4282.3028178930963</v>
       </c>
       <c r="D94" s="248">
-        <v>-1471.7643382248637</v>
+        <v>-1471.910544271808</v>
       </c>
       <c r="E94" s="248">
-        <v>9492.1213578590523</v>
+        <v>9491.7504440016328</v>
       </c>
       <c r="F94" s="248">
-        <v>6657.3080986348523</v>
+        <v>6655.8253373077659</v>
       </c>
       <c r="G94" s="248">
-        <v>9731.01880261373</v>
+        <v>9730.7668734772233</v>
       </c>
       <c r="H94" s="248">
-        <v>6343.5212680643</v>
+        <v>6346.1293164027784</v>
       </c>
       <c r="I94" s="248">
-        <v>-45684.897231909286</v>
+        <v>-45685.200423250535</v>
       </c>
       <c r="J94" s="248">
-        <v>4561.5374562374345</v>
+        <v>4561.5544954098077</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
@@ -12655,31 +12655,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>42013.887190266891</v>
+        <v>42014.624703659982</v>
       </c>
       <c r="C9" s="231">
-        <v>7018.2900434468456</v>
+        <v>7018.524303239662</v>
       </c>
       <c r="D9" s="231">
-        <v>16465.500936850214</v>
+        <v>16465.594033212485</v>
       </c>
       <c r="E9" s="231">
-        <v>23018.961406411516</v>
+        <v>23018.0103088733</v>
       </c>
       <c r="F9" s="231">
-        <v>13828.733869065558</v>
+        <v>13828.799715520469</v>
       </c>
       <c r="G9" s="231">
-        <v>15798.472293042962</v>
+        <v>15798.165326180411</v>
       </c>
       <c r="H9" s="231">
-        <v>12201.511660000359</v>
+        <v>12202.135848079166</v>
       </c>
       <c r="I9" s="231">
-        <v>4264.0472813710376</v>
+        <v>4263.5609727565015</v>
       </c>
       <c r="J9" s="231">
-        <v>4579.5953195446345</v>
+        <v>4579.5847884780378</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -12705,28 +12705,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>42013.887190266891</v>
+        <v>42014.624703659982</v>
       </c>
       <c r="C11" s="231">
-        <v>49032.177233713737</v>
+        <v>49033.149006899643</v>
       </c>
       <c r="D11" s="231">
-        <v>65497.678170563951</v>
+        <v>65498.743040112124</v>
       </c>
       <c r="E11" s="231">
-        <v>88516.63957697546</v>
+        <v>88516.753348985425</v>
       </c>
       <c r="F11" s="231">
-        <v>102345.37344604102</v>
+        <v>102345.55306450589</v>
       </c>
       <c r="G11" s="231">
-        <v>118143.84573908398</v>
+        <v>118143.71839068631</v>
       </c>
       <c r="H11" s="231">
-        <v>130345.35739908433</v>
+        <v>130345.85423876547</v>
       </c>
       <c r="I11" s="231">
-        <v>134609.40468045537</v>
+        <v>134609.41521152196</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -12843,31 +12843,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>29903.47822202406</v>
+        <v>29904.21573541715</v>
       </c>
       <c r="C15" s="231">
-        <v>-3726.770155369205</v>
+        <v>-3726.5358955763886</v>
       </c>
       <c r="D15" s="231">
-        <v>-98.509579936395312</v>
+        <v>-98.416483574124868</v>
       </c>
       <c r="E15" s="231">
-        <v>10481.380577209875</v>
+        <v>10480.42947967166</v>
       </c>
       <c r="F15" s="231">
-        <v>6749.6492761711779</v>
+        <v>6749.7151226260885</v>
       </c>
       <c r="G15" s="231">
-        <v>9097.1874742797118</v>
+        <v>9096.8805074171614</v>
       </c>
       <c r="H15" s="231">
-        <v>4191.7643892500892</v>
+        <v>4192.3885773288966</v>
       </c>
       <c r="I15" s="231">
-        <v>-46258.253737727508</v>
+        <v>-46258.740046342042</v>
       </c>
       <c r="J15" s="231">
-        <v>-10339.926465901779</v>
+        <v>-10339.936996968376</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -12876,31 +12876,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.21484081516516432</v>
+        <v>0.21484611381227789</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.026774889936483522</v>
+        <v>-0.026773206902674696</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.0007077396916164015</v>
+        <v>-0.00070707084305602361</v>
       </c>
       <c r="E16" s="236">
-        <v>0.075303224947444652</v>
+        <v>0.075296391810212443</v>
       </c>
       <c r="F16" s="237">
-        <v>0.048492691780034188</v>
+        <v>0.048493164852295004</v>
       </c>
       <c r="G16" s="236">
-        <v>0.06535852311806041</v>
+        <v>0.065356317722069721</v>
       </c>
       <c r="H16" s="236">
-        <v>0.03011562974983719</v>
+        <v>0.0301201142139745</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.33234130382233873</v>
+        <v>-0.3323447976948038</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.074286951310101934</v>
+        <v>-0.074287026970294892</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -12909,28 +12909,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>29903.47822202406</v>
+        <v>29904.21573541715</v>
       </c>
       <c r="C17" s="231">
-        <v>26176.708066654857</v>
+        <v>26177.679839840763</v>
       </c>
       <c r="D17" s="231">
-        <v>26078.198486718458</v>
+        <v>26079.263356266631</v>
       </c>
       <c r="E17" s="231">
-        <v>36559.579063928322</v>
+        <v>36559.692835938287</v>
       </c>
       <c r="F17" s="231">
-        <v>43309.2283400995</v>
+        <v>43309.40795856437</v>
       </c>
       <c r="G17" s="231">
-        <v>52406.4158143792</v>
+        <v>52406.288465981532</v>
       </c>
       <c r="H17" s="231">
-        <v>56598.180203629279</v>
+        <v>56598.677043310425</v>
       </c>
       <c r="I17" s="231">
-        <v>10339.926465901779</v>
+        <v>10339.936996968376</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -12942,28 +12942,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.21484081516516432</v>
+        <v>0.21484611381227789</v>
       </c>
       <c r="C18" s="236">
-        <v>0.18806592522868082</v>
+        <v>0.18807290690960321</v>
       </c>
       <c r="D18" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="E18" s="236">
-        <v>0.262661410484509</v>
+        <v>0.26266222787675958</v>
       </c>
       <c r="F18" s="237">
-        <v>0.31115410226454321</v>
+        <v>0.31115539272905451</v>
       </c>
       <c r="G18" s="236">
-        <v>0.37651262538260355</v>
+        <v>0.37651171045112425</v>
       </c>
       <c r="H18" s="236">
-        <v>0.40662825513244066</v>
+        <v>0.40663182466509873</v>
       </c>
       <c r="I18" s="236">
-        <v>0.074286951310101934</v>
+        <v>0.074287026970294892</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -12975,31 +12975,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.4692376863935857</v>
+        <v>3.4692985855254834</v>
       </c>
       <c r="C19" s="236">
-        <v>0.65316432980246675</v>
+        <v>0.65318613142930559</v>
       </c>
       <c r="D19" s="236">
-        <v>0.99405279416862469</v>
+        <v>0.99405841456847754</v>
       </c>
       <c r="E19" s="236">
-        <v>1.8359970491912911</v>
+        <v>1.8359211894579688</v>
       </c>
       <c r="F19" s="237">
-        <v>1.953463571115696</v>
+        <v>1.9534728726650767</v>
       </c>
       <c r="G19" s="236">
-        <v>2.3575288501106622</v>
+        <v>2.3574830429451925</v>
       </c>
       <c r="H19" s="236">
-        <v>1.5233329152041333</v>
+        <v>1.5234108437651364</v>
       </c>
       <c r="I19" s="236">
-        <v>0.084399308728221489</v>
+        <v>0.08438968310538314</v>
       </c>
       <c r="J19" s="236">
-        <v>0.30695322446674561</v>
+        <v>0.30695251860855871</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -13008,28 +13008,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.4692376863935857</v>
+        <v>3.4692985855254834</v>
       </c>
       <c r="C20" s="236">
-        <v>2.1453148423827941</v>
+        <v>2.1453573605730272</v>
       </c>
       <c r="D20" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="E20" s="236">
-        <v>1.7036498736249275</v>
+        <v>1.7036520633563874</v>
       </c>
       <c r="F20" s="237">
-        <v>1.733605289816607</v>
+        <v>1.7336083323334339</v>
       </c>
       <c r="G20" s="236">
-        <v>1.7972081639699815</v>
+        <v>1.7972062267418629</v>
       </c>
       <c r="H20" s="236">
-        <v>1.7674623267765881</v>
+        <v>1.7674690638436874</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0832056802238252</v>
+        <v>1.0832057649676157</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -13072,28 +13072,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -13103,28 +13103,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -13425,31 +13425,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>50.5393001738551</v>
+        <v>50.5488180815806</v>
       </c>
       <c r="C49" s="246">
-        <v>47.4297919794657</v>
+        <v>47.4403183798085</v>
       </c>
       <c r="D49" s="246">
-        <v>102.17417199442801</v>
+        <v>102.19264139759399</v>
       </c>
       <c r="E49" s="246">
-        <v>175.286582575743</v>
+        <v>175.302676090433</v>
       </c>
       <c r="F49" s="246">
-        <v>131.18637326584098</v>
+        <v>131.162634988031</v>
       </c>
       <c r="G49" s="246">
-        <v>189.75306860151298</v>
+        <v>189.745724614193</v>
       </c>
       <c r="H49" s="246">
-        <v>204.41138441899201</v>
+        <v>204.39008059775802</v>
       </c>
       <c r="I49" s="246">
-        <v>80.0283293768487</v>
+        <v>80.026108237288113</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613313471</v>
+        <v>26.190997613313812</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -13460,31 +13460,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>50.5393001738551</v>
+        <v>50.5488180815806</v>
       </c>
       <c r="C50" s="248">
-        <v>47.4297919794657</v>
+        <v>47.4403183798085</v>
       </c>
       <c r="D50" s="248">
-        <v>102.17417199442801</v>
+        <v>102.19264139759399</v>
       </c>
       <c r="E50" s="248">
-        <v>175.286582575743</v>
+        <v>175.302676090433</v>
       </c>
       <c r="F50" s="248">
-        <v>131.18637326584098</v>
+        <v>131.162634988031</v>
       </c>
       <c r="G50" s="248">
-        <v>189.75306860151298</v>
+        <v>189.745724614193</v>
       </c>
       <c r="H50" s="248">
-        <v>204.41138441899201</v>
+        <v>204.39008059775802</v>
       </c>
       <c r="I50" s="248">
-        <v>80.0283293768487</v>
+        <v>80.026108237288113</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613313471</v>
+        <v>26.190997613313812</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -13495,31 +13495,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>6.3652643876486</v>
+        <v>6.3658043476966</v>
       </c>
       <c r="C51" s="246">
-        <v>5.7340494911701</v>
+        <v>5.7357351291434</v>
       </c>
       <c r="D51" s="246">
-        <v>12.9864395806645</v>
+        <v>12.9896890991678</v>
       </c>
       <c r="E51" s="246">
-        <v>22.8357836438069</v>
+        <v>22.8393751450967</v>
       </c>
       <c r="F51" s="246">
-        <v>16.9615802169461</v>
+        <v>16.959137628406502</v>
       </c>
       <c r="G51" s="246">
-        <v>25.2946806275381</v>
+        <v>25.2952942814874</v>
       </c>
       <c r="H51" s="246">
-        <v>35.5676255134924</v>
+        <v>35.5624668578945</v>
       </c>
       <c r="I51" s="246">
-        <v>15.9965317248929</v>
+        <v>15.994452697266999</v>
       </c>
       <c r="J51" s="246">
-        <v>2.2580448138403995</v>
+        <v>2.2580448138400868</v>
       </c>
       <c r="K51" s="246">
         <v>144</v>
@@ -13530,31 +13530,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>6.3652643876486</v>
+        <v>6.3658043476966</v>
       </c>
       <c r="C52" s="248">
-        <v>5.7340494911701</v>
+        <v>5.7357351291434</v>
       </c>
       <c r="D52" s="248">
-        <v>12.9864395806645</v>
+        <v>12.9896890991678</v>
       </c>
       <c r="E52" s="248">
-        <v>22.8357836438069</v>
+        <v>22.8393751450967</v>
       </c>
       <c r="F52" s="248">
-        <v>16.9615802169461</v>
+        <v>16.959137628406502</v>
       </c>
       <c r="G52" s="248">
-        <v>25.2946806275381</v>
+        <v>25.2952942814874</v>
       </c>
       <c r="H52" s="248">
-        <v>35.5676255134924</v>
+        <v>35.5624668578945</v>
       </c>
       <c r="I52" s="248">
-        <v>15.9965317248929</v>
+        <v>15.994452697266999</v>
       </c>
       <c r="J52" s="248">
-        <v>2.2580448138403995</v>
+        <v>2.2580448138400868</v>
       </c>
       <c r="K52" s="248">
         <v>144</v>
@@ -13565,28 +13565,28 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>56.904564561503705</v>
+        <v>56.914622429277195</v>
       </c>
       <c r="C53" s="248">
-        <v>53.1638414706358</v>
+        <v>53.1760535089519</v>
       </c>
       <c r="D53" s="248">
-        <v>115.1606115750925</v>
+        <v>115.18233049676179</v>
       </c>
       <c r="E53" s="248">
-        <v>198.12236621954992</v>
+        <v>198.14205123552972</v>
       </c>
       <c r="F53" s="248">
-        <v>148.1479534827871</v>
+        <v>148.12177261643748</v>
       </c>
       <c r="G53" s="248">
-        <v>215.04774922905108</v>
+        <v>215.0410188956804</v>
       </c>
       <c r="H53" s="248">
-        <v>239.97900993248442</v>
+        <v>239.95254745565251</v>
       </c>
       <c r="I53" s="248">
-        <v>96.0248611017416</v>
+        <v>96.0205609345551</v>
       </c>
       <c r="J53" s="248">
         <v>28.449042427153927</v>
@@ -13600,31 +13600,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2056.76016311365</v>
+        <v>2056.7702209814233</v>
       </c>
       <c r="C54" s="248">
-        <v>53.1638414706358</v>
+        <v>53.1760535089519</v>
       </c>
       <c r="D54" s="248">
-        <v>115.1606115750925</v>
+        <v>115.18233049676179</v>
       </c>
       <c r="E54" s="248">
-        <v>795.09222382589428</v>
+        <v>795.11190884187408</v>
       </c>
       <c r="F54" s="248">
-        <v>777.99639243669469</v>
+        <v>777.9702115703451</v>
       </c>
       <c r="G54" s="248">
-        <v>730.59333857235742</v>
+        <v>730.58660823898686</v>
       </c>
       <c r="H54" s="248">
-        <v>239.97900993248442</v>
+        <v>239.95254745565251</v>
       </c>
       <c r="I54" s="248">
-        <v>96.0248611017416</v>
+        <v>96.0205609345551</v>
       </c>
       <c r="J54" s="248">
-        <v>33.22955797144823</v>
+        <v>33.22955797144914</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -13810,31 +13810,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>5164.43368070394</v>
+        <v>5165.16113622925</v>
       </c>
       <c r="C60" s="246">
-        <v>4899.0290305681792</v>
+        <v>4899.25107832268</v>
       </c>
       <c r="D60" s="246">
-        <v>10044.442125205002</v>
+        <v>10044.513502645601</v>
       </c>
       <c r="E60" s="246">
-        <v>14790.373927438199</v>
+        <v>14789.403144884</v>
       </c>
       <c r="F60" s="246">
-        <v>8446.3527583347714</v>
+        <v>8446.44478565603</v>
       </c>
       <c r="G60" s="246">
-        <v>8825.88918433634</v>
+        <v>8825.5889478071585</v>
       </c>
       <c r="H60" s="246">
-        <v>5734.2993824146906</v>
+        <v>5734.95003297033</v>
       </c>
       <c r="I60" s="246">
-        <v>1239.13108431344</v>
+        <v>1238.6490758660898</v>
       </c>
       <c r="J60" s="246">
-        <v>265.04882668542996</v>
+        <v>265.03829561886232</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -13880,31 +13880,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>5250.569133021163</v>
+        <v>5251.2965885464728</v>
       </c>
       <c r="C62" s="248">
-        <v>4976.4010076715322</v>
+        <v>4976.6230554260319</v>
       </c>
       <c r="D62" s="248">
-        <v>10168.958828666851</v>
+        <v>10169.030206107453</v>
       </c>
       <c r="E62" s="248">
-        <v>14927.645341624566</v>
+        <v>14926.674559070365</v>
       </c>
       <c r="F62" s="248">
-        <v>8521.1046055811039</v>
+        <v>8521.1966329023635</v>
       </c>
       <c r="G62" s="248">
-        <v>8890.205222593102</v>
+        <v>8889.9049860639225</v>
       </c>
       <c r="H62" s="248">
-        <v>5764.3204246317464</v>
+        <v>5764.9710751873863</v>
       </c>
       <c r="I62" s="248">
-        <v>1240.7417858803378</v>
+        <v>1240.2597774329879</v>
       </c>
       <c r="J62" s="248">
-        <v>271.05365032959526</v>
+        <v>271.04311926302034</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -13915,31 +13915,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>5412.9211219478593</v>
+        <v>5413.6485774731691</v>
       </c>
       <c r="C63" s="248">
-        <v>5124.8377947703257</v>
+        <v>5125.0598425248254</v>
       </c>
       <c r="D63" s="248">
-        <v>10428.578234957591</v>
+        <v>10428.649612398192</v>
       </c>
       <c r="E63" s="248">
-        <v>15321.171527682782</v>
+        <v>15320.200745128581</v>
       </c>
       <c r="F63" s="248">
-        <v>8795.0117755129522</v>
+        <v>8795.1038028342118</v>
       </c>
       <c r="G63" s="248">
-        <v>9208.8974689716524</v>
+        <v>9208.5972324424729</v>
       </c>
       <c r="H63" s="248">
-        <v>5986.6452223406595</v>
+        <v>5987.2958728962985</v>
       </c>
       <c r="I63" s="248">
-        <v>1240.7417858803378</v>
+        <v>1240.2597774329879</v>
       </c>
       <c r="J63" s="248">
-        <v>298.19506793583423</v>
+        <v>298.18453686925932</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -14055,31 +14055,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>6631.3693418865123</v>
+        <v>6632.0967974118221</v>
       </c>
       <c r="C67" s="248">
-        <v>5879.4115895359519</v>
+        <v>5879.6336372904516</v>
       </c>
       <c r="D67" s="248">
-        <v>13483.284345860544</v>
+        <v>13483.355723301147</v>
       </c>
       <c r="E67" s="248">
-        <v>18386.430155395788</v>
+        <v>18385.459372841589</v>
       </c>
       <c r="F67" s="248">
-        <v>10889.274104033069</v>
+        <v>10889.366131354329</v>
       </c>
       <c r="G67" s="248">
-        <v>12101.983371892366</v>
+        <v>12101.683135363184</v>
       </c>
       <c r="H67" s="248">
-        <v>9618.4876382489583</v>
+        <v>9619.1382888045973</v>
       </c>
       <c r="I67" s="248">
-        <v>3837.9698117053731</v>
+        <v>3837.4878032580232</v>
       </c>
       <c r="J67" s="248">
-        <v>542.7896414414281</v>
+        <v>542.779110374875</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -14335,31 +14335,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>7704.1270271532485</v>
+        <v>7704.8544826785574</v>
       </c>
       <c r="C75" s="248">
-        <v>6965.12620197621</v>
+        <v>6965.3482497307095</v>
       </c>
       <c r="D75" s="248">
-        <v>16350.34032527512</v>
+        <v>16350.411702715721</v>
       </c>
       <c r="E75" s="248">
-        <v>22223.869182585622</v>
+        <v>22222.898400031427</v>
       </c>
       <c r="F75" s="248">
-        <v>13050.737476628865</v>
+        <v>13050.829503950123</v>
       </c>
       <c r="G75" s="248">
-        <v>15067.878954470605</v>
+        <v>15067.578717941424</v>
       </c>
       <c r="H75" s="248">
-        <v>11961.532650067873</v>
+        <v>11962.183300623514</v>
       </c>
       <c r="I75" s="248">
-        <v>4168.0224202692962</v>
+        <v>4167.5404118219458</v>
       </c>
       <c r="J75" s="248">
-        <v>874.36576157316449</v>
+        <v>874.35523050659685</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -14510,31 +14510,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>42013.887190266891</v>
+        <v>42014.624703659982</v>
       </c>
       <c r="C80" s="248">
-        <v>7018.2900434468456</v>
+        <v>7018.524303239662</v>
       </c>
       <c r="D80" s="248">
-        <v>16465.500936850214</v>
+        <v>16465.594033212485</v>
       </c>
       <c r="E80" s="248">
-        <v>23018.961406411516</v>
+        <v>23018.0103088733</v>
       </c>
       <c r="F80" s="248">
-        <v>13828.733869065558</v>
+        <v>13828.799715520469</v>
       </c>
       <c r="G80" s="248">
-        <v>15798.472293042962</v>
+        <v>15798.165326180411</v>
       </c>
       <c r="H80" s="248">
-        <v>12201.511660000359</v>
+        <v>12202.135848079166</v>
       </c>
       <c r="I80" s="248">
-        <v>4264.0472813710376</v>
+        <v>4263.5609727565015</v>
       </c>
       <c r="J80" s="248">
-        <v>4579.5953195446345</v>
+        <v>4579.5847884780378</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -14890,31 +14890,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>29903.47822202406</v>
+        <v>29904.21573541715</v>
       </c>
       <c r="C94" s="248">
-        <v>-3726.7701553692045</v>
+        <v>-3726.5358955763877</v>
       </c>
       <c r="D94" s="248">
-        <v>-98.5095799363982</v>
+        <v>-98.416483574127781</v>
       </c>
       <c r="E94" s="248">
-        <v>10481.380577209877</v>
+        <v>10480.429479671659</v>
       </c>
       <c r="F94" s="248">
-        <v>6749.6492761711788</v>
+        <v>6749.7151226260876</v>
       </c>
       <c r="G94" s="248">
-        <v>9097.1874742797136</v>
+        <v>9096.8805074171614</v>
       </c>
       <c r="H94" s="248">
-        <v>4191.7643892500882</v>
+        <v>4192.3885773288957</v>
       </c>
       <c r="I94" s="248">
-        <v>-46258.253737727508</v>
+        <v>-46258.740046342042</v>
       </c>
       <c r="J94" s="248">
-        <v>4410.0735340981992</v>
+        <v>4410.0630030316024</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
@@ -15104,31 +15104,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>41943.949091915521</v>
+        <v>41943.975194473947</v>
       </c>
       <c r="C9" s="231">
-        <v>6903.9160225063479</v>
+        <v>6903.7528920294535</v>
       </c>
       <c r="D9" s="231">
-        <v>16162.571263715816</v>
+        <v>16162.281514438742</v>
       </c>
       <c r="E9" s="231">
-        <v>22722.819393108904</v>
+        <v>22723.023434653976</v>
       </c>
       <c r="F9" s="231">
-        <v>13830.287657386985</v>
+        <v>13830.927195683245</v>
       </c>
       <c r="G9" s="231">
-        <v>15852.915907052189</v>
+        <v>15850.376420871598</v>
       </c>
       <c r="H9" s="231">
-        <v>12790.073716054449</v>
+        <v>12792.745594529259</v>
       </c>
       <c r="I9" s="231">
-        <v>4397.8322706250137</v>
+        <v>4397.2848319264413</v>
       </c>
       <c r="J9" s="231">
-        <v>4584.6346776347782</v>
+        <v>4584.63292139332</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -15154,28 +15154,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>41943.949091915521</v>
+        <v>41943.975194473947</v>
       </c>
       <c r="C11" s="231">
-        <v>48847.865114421867</v>
+        <v>48847.7280865034</v>
       </c>
       <c r="D11" s="231">
-        <v>65010.436378137681</v>
+        <v>65010.00960094214</v>
       </c>
       <c r="E11" s="231">
-        <v>87733.2557712466</v>
+        <v>87733.03303559612</v>
       </c>
       <c r="F11" s="231">
-        <v>101563.54342863358</v>
+        <v>101563.96023127937</v>
       </c>
       <c r="G11" s="231">
-        <v>117416.45933568577</v>
+        <v>117414.33665215097</v>
       </c>
       <c r="H11" s="231">
-        <v>130206.53305174022</v>
+        <v>130207.08224668024</v>
       </c>
       <c r="I11" s="231">
-        <v>134604.36532236522</v>
+        <v>134604.36707860668</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -15292,31 +15292,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>29833.54012367269</v>
+        <v>29833.566226231116</v>
       </c>
       <c r="C15" s="231">
-        <v>-3841.1441763097027</v>
+        <v>-3841.3073067865971</v>
       </c>
       <c r="D15" s="231">
-        <v>-401.43925307079371</v>
+        <v>-401.72900234786721</v>
       </c>
       <c r="E15" s="231">
-        <v>10185.238563907264</v>
+        <v>10185.442605452336</v>
       </c>
       <c r="F15" s="231">
-        <v>6751.2030426775264</v>
+        <v>6751.8425809737864</v>
       </c>
       <c r="G15" s="231">
-        <v>9132.0018661458889</v>
+        <v>9129.4623799652982</v>
       </c>
       <c r="H15" s="231">
-        <v>4741.982264879679</v>
+        <v>4744.654143354489</v>
       </c>
       <c r="I15" s="231">
-        <v>-46100.938558739865</v>
+        <v>-46101.485997438431</v>
       </c>
       <c r="J15" s="231">
-        <v>-10300.443873162687</v>
+        <v>-10300.445629404145</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -15325,31 +15325,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.21433834659112924</v>
+        <v>0.21433853412432818</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.027596607320332086</v>
+        <v>-0.027597779327293084</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.0028841305927249546</v>
+        <v>-0.0028862122893897309</v>
       </c>
       <c r="E16" s="236">
-        <v>0.073175599824032531</v>
+        <v>0.073177065755572174</v>
       </c>
       <c r="F16" s="237">
-        <v>0.04850385477787416</v>
+        <v>0.048508449525277039</v>
       </c>
       <c r="G16" s="236">
-        <v>0.065608646273382878</v>
+        <v>0.06559040139641277</v>
       </c>
       <c r="H16" s="236">
-        <v>0.034068656753620467</v>
+        <v>0.03408785279982246</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.33121107672833239</v>
+        <v>-0.33121500978840596</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.074003289578649808</v>
+        <v>-0.07400330219632402</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -15358,28 +15358,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>29833.54012367269</v>
+        <v>29833.566226231116</v>
       </c>
       <c r="C17" s="231">
-        <v>25992.395947362988</v>
+        <v>25992.258919444517</v>
       </c>
       <c r="D17" s="231">
-        <v>25590.956694292188</v>
+        <v>25590.529917096646</v>
       </c>
       <c r="E17" s="231">
-        <v>35776.195258199456</v>
+        <v>35775.972522548982</v>
       </c>
       <c r="F17" s="231">
-        <v>42527.398300876986</v>
+        <v>42527.815103522778</v>
       </c>
       <c r="G17" s="231">
-        <v>51659.400167022875</v>
+        <v>51657.277483488084</v>
       </c>
       <c r="H17" s="231">
-        <v>56401.382431902559</v>
+        <v>56401.931626842575</v>
       </c>
       <c r="I17" s="231">
-        <v>10300.443873162687</v>
+        <v>10300.445629404145</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -15391,28 +15391,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.21433834659112924</v>
+        <v>0.21433853412432818</v>
       </c>
       <c r="C18" s="236">
-        <v>0.18674173927079718</v>
+        <v>0.18674075479703509</v>
       </c>
       <c r="D18" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="E18" s="236">
-        <v>0.25703320850210476</v>
+        <v>0.25703160826321747</v>
       </c>
       <c r="F18" s="237">
-        <v>0.30553706327997893</v>
+        <v>0.30554005778849463</v>
       </c>
       <c r="G18" s="236">
-        <v>0.37114570955336179</v>
+        <v>0.3711304591849075</v>
       </c>
       <c r="H18" s="236">
-        <v>0.40521436630698232</v>
+        <v>0.40521831198472996</v>
       </c>
       <c r="I18" s="236">
-        <v>0.074003289578649808</v>
+        <v>0.07400330219632402</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -15424,31 +15424,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.4634626462165965</v>
+        <v>3.4634648015986733</v>
       </c>
       <c r="C19" s="236">
-        <v>0.64251999474763855</v>
+        <v>0.64250481284322136</v>
       </c>
       <c r="D19" s="236">
-        <v>0.97576436861930516</v>
+        <v>0.97574687591868281</v>
       </c>
       <c r="E19" s="236">
-        <v>1.8123767019060433</v>
+        <v>1.8123929763012276</v>
       </c>
       <c r="F19" s="237">
-        <v>1.9536830551014131</v>
+        <v>1.9537733970497113</v>
       </c>
       <c r="G19" s="236">
-        <v>2.3587440354934905</v>
+        <v>2.3583661871584081</v>
       </c>
       <c r="H19" s="236">
-        <v>1.5892058127877633</v>
+        <v>1.589537801867537</v>
       </c>
       <c r="I19" s="236">
-        <v>0.087087907257886912</v>
+        <v>0.087077066623756985</v>
       </c>
       <c r="J19" s="236">
-        <v>0.30800204795621705</v>
+        <v>0.30800192996950626</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -15457,28 +15457,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.4634626462165965</v>
+        <v>3.4634648015986733</v>
       </c>
       <c r="C20" s="236">
-        <v>2.1372505966679212</v>
+        <v>2.1372446012574806</v>
       </c>
       <c r="D20" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="E20" s="236">
-        <v>1.6885723500315333</v>
+        <v>1.688568063113677</v>
       </c>
       <c r="F20" s="237">
-        <v>1.7203620461472542</v>
+        <v>1.7203691062736377</v>
       </c>
       <c r="G20" s="236">
-        <v>1.785609953062524</v>
+        <v>1.7855776723680765</v>
       </c>
       <c r="H20" s="236">
-        <v>1.7641930401635515</v>
+        <v>1.7642004813100758</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0828649953523148</v>
+        <v>1.0828650094809236</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -15521,28 +15521,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -15552,28 +15552,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -15874,31 +15874,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>50.0988641463289</v>
+        <v>50.1073517063095</v>
       </c>
       <c r="C49" s="246">
-        <v>46.4135620483625</v>
+        <v>46.4072111306636</v>
       </c>
       <c r="D49" s="246">
-        <v>97.7778627281278</v>
+        <v>97.7618231954565</v>
       </c>
       <c r="E49" s="246">
-        <v>164.123672314727</v>
+        <v>164.106859232934</v>
       </c>
       <c r="F49" s="246">
-        <v>124.120057870794</v>
+        <v>124.11468132338001</v>
       </c>
       <c r="G49" s="246">
-        <v>178.459272933017</v>
+        <v>178.425882346042</v>
       </c>
       <c r="H49" s="246">
-        <v>214.915936335362</v>
+        <v>214.98425418961602</v>
       </c>
       <c r="I49" s="246">
-        <v>104.899774009968</v>
+        <v>104.900939262284</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613312675</v>
+        <v>26.190997613314266</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -15909,31 +15909,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>50.0988641463289</v>
+        <v>50.1073517063095</v>
       </c>
       <c r="C50" s="248">
-        <v>46.4135620483625</v>
+        <v>46.4072111306636</v>
       </c>
       <c r="D50" s="248">
-        <v>97.7778627281278</v>
+        <v>97.7618231954565</v>
       </c>
       <c r="E50" s="248">
-        <v>164.123672314727</v>
+        <v>164.106859232934</v>
       </c>
       <c r="F50" s="248">
-        <v>124.120057870794</v>
+        <v>124.11468132338001</v>
       </c>
       <c r="G50" s="248">
-        <v>178.459272933017</v>
+        <v>178.425882346042</v>
       </c>
       <c r="H50" s="248">
-        <v>214.915936335362</v>
+        <v>214.98425418961602</v>
       </c>
       <c r="I50" s="248">
-        <v>104.899774009968</v>
+        <v>104.900939262284</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613312675</v>
+        <v>26.190997613314266</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -15944,31 +15944,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>6.4483605138981</v>
+        <v>6.4488216532979008</v>
       </c>
       <c r="C51" s="246">
-        <v>5.7531904083532</v>
+        <v>5.7526820803664007</v>
       </c>
       <c r="D51" s="246">
-        <v>12.7409001152228</v>
+        <v>12.7390926855498</v>
       </c>
       <c r="E51" s="246">
-        <v>21.8276832080907</v>
+        <v>21.825076010555897</v>
       </c>
       <c r="F51" s="246">
-        <v>16.437852741886502</v>
+        <v>16.4366011906112</v>
       </c>
       <c r="G51" s="246">
-        <v>24.201330002010902</v>
+        <v>24.1985447432159</v>
       </c>
       <c r="H51" s="246">
-        <v>38.2785392150965</v>
+        <v>38.2861840620898</v>
       </c>
       <c r="I51" s="246">
-        <v>16.054098981601</v>
+        <v>16.054952760472798</v>
       </c>
       <c r="J51" s="246">
-        <v>2.2580448138402858</v>
+        <v>2.2580448138403142</v>
       </c>
       <c r="K51" s="246">
         <v>144</v>
@@ -15979,31 +15979,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>6.4483605138981</v>
+        <v>6.4488216532979008</v>
       </c>
       <c r="C52" s="248">
-        <v>5.7531904083532</v>
+        <v>5.7526820803664007</v>
       </c>
       <c r="D52" s="248">
-        <v>12.7409001152228</v>
+        <v>12.7390926855498</v>
       </c>
       <c r="E52" s="248">
-        <v>21.8276832080907</v>
+        <v>21.825076010555897</v>
       </c>
       <c r="F52" s="248">
-        <v>16.437852741886502</v>
+        <v>16.4366011906112</v>
       </c>
       <c r="G52" s="248">
-        <v>24.201330002010902</v>
+        <v>24.1985447432159</v>
       </c>
       <c r="H52" s="248">
-        <v>38.2785392150965</v>
+        <v>38.2861840620898</v>
       </c>
       <c r="I52" s="248">
-        <v>16.054098981601</v>
+        <v>16.054952760472798</v>
       </c>
       <c r="J52" s="248">
-        <v>2.2580448138402858</v>
+        <v>2.2580448138403142</v>
       </c>
       <c r="K52" s="248">
         <v>144</v>
@@ -16014,31 +16014,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>56.547224660227</v>
+        <v>56.5561733596074</v>
       </c>
       <c r="C53" s="248">
-        <v>52.1667524567157</v>
+        <v>52.15989321103</v>
       </c>
       <c r="D53" s="248">
-        <v>110.5187628433506</v>
+        <v>110.50091588100629</v>
       </c>
       <c r="E53" s="248">
-        <v>185.95135552281769</v>
+        <v>185.9319352434899</v>
       </c>
       <c r="F53" s="248">
-        <v>140.5579106126805</v>
+        <v>140.5512825139912</v>
       </c>
       <c r="G53" s="248">
-        <v>202.66060293502792</v>
+        <v>202.62442708925789</v>
       </c>
       <c r="H53" s="248">
-        <v>253.19447555045849</v>
+        <v>253.2704382517058</v>
       </c>
       <c r="I53" s="248">
-        <v>120.95387299156899</v>
+        <v>120.9558920227568</v>
       </c>
       <c r="J53" s="248">
-        <v>28.449042427153017</v>
+        <v>28.449042427154609</v>
       </c>
       <c r="K53" s="248">
         <v>1151</v>
@@ -16049,31 +16049,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2056.4028232123733</v>
+        <v>2056.4117719117535</v>
       </c>
       <c r="C54" s="248">
-        <v>52.1667524567157</v>
+        <v>52.15989321103</v>
       </c>
       <c r="D54" s="248">
-        <v>110.5187628433506</v>
+        <v>110.50091588100629</v>
       </c>
       <c r="E54" s="248">
-        <v>782.92121312916208</v>
+        <v>782.90179284983435</v>
       </c>
       <c r="F54" s="248">
-        <v>770.406349566588</v>
+        <v>770.39972146789876</v>
       </c>
       <c r="G54" s="248">
-        <v>718.20619227833424</v>
+        <v>718.17001643256424</v>
       </c>
       <c r="H54" s="248">
-        <v>253.19447555045849</v>
+        <v>253.2704382517058</v>
       </c>
       <c r="I54" s="248">
-        <v>120.95387299156899</v>
+        <v>120.9558920227568</v>
       </c>
       <c r="J54" s="248">
-        <v>33.22955797144823</v>
+        <v>33.229557971450049</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -16259,31 +16259,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>5094.8544624527894</v>
+        <v>5094.87161631183</v>
       </c>
       <c r="C60" s="246">
-        <v>4785.66073018004</v>
+        <v>4785.50445894883</v>
       </c>
       <c r="D60" s="246">
-        <v>9746.24345454421</v>
+        <v>9745.9715522294809</v>
       </c>
       <c r="E60" s="246">
-        <v>14507.0842495734</v>
+        <v>14507.3077113978</v>
       </c>
       <c r="F60" s="246">
-        <v>8457.01539583577</v>
+        <v>8457.66156223072</v>
       </c>
       <c r="G60" s="246">
-        <v>8897.95087890003</v>
+        <v>8895.44756856521</v>
       </c>
       <c r="H60" s="246">
-        <v>6340.5905094581494</v>
+        <v>6343.18642523171</v>
       </c>
       <c r="I60" s="246">
-        <v>1310.63293924174</v>
+        <v>1310.0834815119802</v>
       </c>
       <c r="J60" s="246">
-        <v>268.96737981386832</v>
+        <v>268.96562357243965</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -16329,31 +16329,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>5180.9899118135163</v>
+        <v>5181.0070656725557</v>
       </c>
       <c r="C62" s="248">
-        <v>4863.0327057532259</v>
+        <v>4862.8764345220161</v>
       </c>
       <c r="D62" s="248">
-        <v>9870.7601624912677</v>
+        <v>9870.4882601765385</v>
       </c>
       <c r="E62" s="248">
-        <v>14644.355569426753</v>
+        <v>14644.579031251153</v>
       </c>
       <c r="F62" s="248">
-        <v>8531.76715026906</v>
+        <v>8532.4133166640077</v>
       </c>
       <c r="G62" s="248">
-        <v>8962.2626096473032</v>
+        <v>8959.7592993124836</v>
       </c>
       <c r="H62" s="248">
-        <v>6370.5887058074595</v>
+        <v>6373.18462158102</v>
       </c>
       <c r="I62" s="248">
-        <v>1312.2701956201661</v>
+        <v>1311.7207378904063</v>
       </c>
       <c r="J62" s="248">
-        <v>274.9729891712559</v>
+        <v>274.97123292981269</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -16364,31 +16364,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>5343.3419007402126</v>
+        <v>5343.3590545992529</v>
       </c>
       <c r="C63" s="248">
-        <v>5011.4694928520194</v>
+        <v>5011.31322162081</v>
       </c>
       <c r="D63" s="248">
-        <v>10130.379568782008</v>
+        <v>10130.107666467276</v>
       </c>
       <c r="E63" s="248">
-        <v>15037.881755484968</v>
+        <v>15038.105217309369</v>
       </c>
       <c r="F63" s="248">
-        <v>8805.6743202009075</v>
+        <v>8806.320486595856</v>
       </c>
       <c r="G63" s="248">
-        <v>9280.9548560258536</v>
+        <v>9278.451545691034</v>
       </c>
       <c r="H63" s="248">
-        <v>6592.9130754406269</v>
+        <v>6595.5089912141866</v>
       </c>
       <c r="I63" s="248">
-        <v>1312.2701956201661</v>
+        <v>1311.7207378904063</v>
       </c>
       <c r="J63" s="248">
-        <v>302.11483485323697</v>
+        <v>302.11307861180831</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -16504,31 +16504,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>6561.7901206788656</v>
+        <v>6561.807274537905</v>
       </c>
       <c r="C67" s="248">
-        <v>5766.0390576902482</v>
+        <v>5765.8827864590385</v>
       </c>
       <c r="D67" s="248">
-        <v>13185.012080872521</v>
+        <v>13184.740178557791</v>
       </c>
       <c r="E67" s="248">
-        <v>18102.494357814081</v>
+        <v>18102.717819638481</v>
       </c>
       <c r="F67" s="248">
-        <v>10898.404844102322</v>
+        <v>10899.051010497273</v>
       </c>
       <c r="G67" s="248">
-        <v>12168.860114606277</v>
+        <v>12166.356804271458</v>
       </c>
       <c r="H67" s="248">
-        <v>10193.770567176345</v>
+        <v>10196.366482949907</v>
       </c>
       <c r="I67" s="248">
-        <v>3946.8032757291003</v>
+        <v>3946.25381799934</v>
       </c>
       <c r="J67" s="248">
-        <v>547.825581330253</v>
+        <v>547.82382508880983</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -16784,31 +16784,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>7634.5462687031486</v>
+        <v>7634.5634225621889</v>
       </c>
       <c r="C75" s="248">
-        <v>6851.7492700496323</v>
+        <v>6851.5929988184225</v>
       </c>
       <c r="D75" s="248">
-        <v>16052.052500872467</v>
+        <v>16051.780598557736</v>
       </c>
       <c r="E75" s="248">
-        <v>21939.89817997974</v>
+        <v>21940.12164180414</v>
       </c>
       <c r="F75" s="248">
-        <v>13059.881307820397</v>
+        <v>13060.527474215345</v>
       </c>
       <c r="G75" s="248">
-        <v>15134.709714773855</v>
+        <v>15132.206404439034</v>
       </c>
       <c r="H75" s="248">
-        <v>12536.879240503991</v>
+        <v>12539.475156277553</v>
       </c>
       <c r="I75" s="248">
-        <v>4276.8783976334444</v>
+        <v>4276.3289399036839</v>
       </c>
       <c r="J75" s="248">
-        <v>879.4051196633518</v>
+        <v>879.40336342192313</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -16959,31 +16959,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>41943.949091915521</v>
+        <v>41943.975194473947</v>
       </c>
       <c r="C80" s="248">
-        <v>6903.9160225063479</v>
+        <v>6903.7528920294535</v>
       </c>
       <c r="D80" s="248">
-        <v>16162.571263715816</v>
+        <v>16162.281514438742</v>
       </c>
       <c r="E80" s="248">
-        <v>22722.819393108904</v>
+        <v>22723.023434653976</v>
       </c>
       <c r="F80" s="248">
-        <v>13830.287657386985</v>
+        <v>13830.927195683245</v>
       </c>
       <c r="G80" s="248">
-        <v>15852.915907052189</v>
+        <v>15850.376420871598</v>
       </c>
       <c r="H80" s="248">
-        <v>12790.073716054449</v>
+        <v>12792.745594529259</v>
       </c>
       <c r="I80" s="248">
-        <v>4397.8322706250137</v>
+        <v>4397.2848319264413</v>
       </c>
       <c r="J80" s="248">
-        <v>4584.6346776347782</v>
+        <v>4584.63292139332</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -17339,31 +17339,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>29833.540123672687</v>
+        <v>29833.566226231113</v>
       </c>
       <c r="C94" s="248">
-        <v>-3841.1441763097018</v>
+        <v>-3841.3073067865967</v>
       </c>
       <c r="D94" s="248">
-        <v>-401.43925307079405</v>
+        <v>-401.72900234786795</v>
       </c>
       <c r="E94" s="248">
-        <v>10185.238563907264</v>
+        <v>10185.442605452334</v>
       </c>
       <c r="F94" s="248">
-        <v>6751.2030426775254</v>
+        <v>6751.8425809737855</v>
       </c>
       <c r="G94" s="248">
-        <v>9132.00186614589</v>
+        <v>9129.4623799652982</v>
       </c>
       <c r="H94" s="248">
-        <v>4741.982264879679</v>
+        <v>4744.654143354489</v>
       </c>
       <c r="I94" s="248">
-        <v>-46100.938558739857</v>
+        <v>-46101.485997438431</v>
       </c>
       <c r="J94" s="248">
-        <v>4449.5561268373131</v>
+        <v>4449.5543705958771</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
@@ -17553,31 +17553,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>41024.761734798376</v>
+        <v>41024.71235702961</v>
       </c>
       <c r="C9" s="231">
-        <v>5925.1629439605977</v>
+        <v>5925.2077790350986</v>
       </c>
       <c r="D9" s="231">
-        <v>14325.607350011451</v>
+        <v>14325.555375942364</v>
       </c>
       <c r="E9" s="231">
-        <v>20746.711581426676</v>
+        <v>20746.377231176637</v>
       </c>
       <c r="F9" s="231">
-        <v>13385.645957495495</v>
+        <v>13384.117239272304</v>
       </c>
       <c r="G9" s="231">
-        <v>16856.331259970546</v>
+        <v>16855.705371804186</v>
       </c>
       <c r="H9" s="231">
-        <v>16375.427923843652</v>
+        <v>16378.50184566184</v>
       </c>
       <c r="I9" s="231">
-        <v>5905.7685125065555</v>
+        <v>5905.2254921146423</v>
       </c>
       <c r="J9" s="231">
-        <v>4643.5827359866526</v>
+        <v>4643.5973079633259</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -17603,28 +17603,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>41024.761734798376</v>
+        <v>41024.71235702961</v>
       </c>
       <c r="C11" s="231">
-        <v>46949.924678758973</v>
+        <v>46949.920136064706</v>
       </c>
       <c r="D11" s="231">
-        <v>61275.532028770423</v>
+        <v>61275.475512007069</v>
       </c>
       <c r="E11" s="231">
-        <v>82022.2436101971</v>
+        <v>82021.8527431837</v>
       </c>
       <c r="F11" s="231">
-        <v>95407.889567692589</v>
+        <v>95405.969982456008</v>
       </c>
       <c r="G11" s="231">
-        <v>112264.22082766314</v>
+        <v>112261.6753542602</v>
       </c>
       <c r="H11" s="231">
-        <v>128639.6487515068</v>
+        <v>128640.17719992204</v>
       </c>
       <c r="I11" s="231">
-        <v>134545.41726401335</v>
+        <v>134545.40269203667</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -17741,31 +17741,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>28457.526460269437</v>
+        <v>28457.477082500671</v>
       </c>
       <c r="C15" s="231">
-        <v>-4933.1123922061715</v>
+        <v>-4933.0675571316706</v>
       </c>
       <c r="D15" s="231">
-        <v>-2684.06262809446</v>
+        <v>-2684.1146021635468</v>
       </c>
       <c r="E15" s="231">
-        <v>8533.585151879166</v>
+        <v>8533.2508016291267</v>
       </c>
       <c r="F15" s="231">
-        <v>6507.1251477884553</v>
+        <v>6505.5964295652639</v>
       </c>
       <c r="G15" s="231">
-        <v>10296.281490489695</v>
+        <v>10295.655602323335</v>
       </c>
       <c r="H15" s="231">
-        <v>8436.2662104876854</v>
+        <v>8439.3401323058733</v>
       </c>
       <c r="I15" s="231">
-        <v>-44586.441563542132</v>
+        <v>-44586.984583934041</v>
       </c>
       <c r="J15" s="231">
-        <v>-10027.167877071683</v>
+        <v>-10027.153305095009</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -17774,31 +17774,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.20445240974695872</v>
+        <v>0.20445205499357472</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.035441826525128936</v>
+        <v>-0.035441504408621878</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.019283582956228295</v>
+        <v>-0.01928395636266908</v>
       </c>
       <c r="E16" s="236">
-        <v>0.061309335880559285</v>
+        <v>0.061306933749284261</v>
       </c>
       <c r="F16" s="237">
-        <v>0.046750283052457126</v>
+        <v>0.046739300013400945</v>
       </c>
       <c r="G16" s="236">
-        <v>0.073973385041128936</v>
+        <v>0.073968888362753782</v>
       </c>
       <c r="H16" s="236">
-        <v>0.060610150302737177</v>
+        <v>0.060632234819604093</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.32033020974029652</v>
+        <v>-0.32033411105715281</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.072039944802187547</v>
+        <v>-0.072039840110174</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -17807,28 +17807,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>28457.526460269437</v>
+        <v>28457.477082500671</v>
       </c>
       <c r="C17" s="231">
-        <v>23524.414068063263</v>
+        <v>23524.409525368996</v>
       </c>
       <c r="D17" s="231">
-        <v>20840.3514399688</v>
+        <v>20840.294923205445</v>
       </c>
       <c r="E17" s="231">
-        <v>29373.93659184796</v>
+        <v>29373.545724834563</v>
       </c>
       <c r="F17" s="231">
-        <v>35881.06173963641</v>
+        <v>35879.142154399829</v>
       </c>
       <c r="G17" s="231">
-        <v>46177.34323012612</v>
+        <v>46174.797756723172</v>
       </c>
       <c r="H17" s="231">
-        <v>54613.609440613815</v>
+        <v>54614.137889029051</v>
       </c>
       <c r="I17" s="231">
-        <v>10027.167877071683</v>
+        <v>10027.153305095009</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -17840,28 +17840,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.20445240974695872</v>
+        <v>0.20445205499357472</v>
       </c>
       <c r="C18" s="236">
-        <v>0.16901058322182977</v>
+        <v>0.16901055058495282</v>
       </c>
       <c r="D18" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="E18" s="236">
-        <v>0.21103633614616069</v>
+        <v>0.21103352797156788</v>
       </c>
       <c r="F18" s="237">
-        <v>0.25778661919861778</v>
+        <v>0.25777282798496887</v>
       </c>
       <c r="G18" s="236">
-        <v>0.33176000423974683</v>
+        <v>0.33174171634772265</v>
       </c>
       <c r="H18" s="236">
-        <v>0.39237015454248408</v>
+        <v>0.39237395116732676</v>
       </c>
       <c r="I18" s="236">
-        <v>0.072039944802187547</v>
+        <v>0.072039840110174</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -17873,31 +17873,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.2644221929979036</v>
+        <v>3.2644182639102648</v>
       </c>
       <c r="C19" s="236">
-        <v>0.54568177362615322</v>
+        <v>0.545685902741792</v>
       </c>
       <c r="D19" s="236">
-        <v>0.84220372108634289</v>
+        <v>0.84220066552623185</v>
       </c>
       <c r="E19" s="236">
-        <v>1.6987224115877209</v>
+        <v>1.6986950352846941</v>
       </c>
       <c r="F19" s="237">
-        <v>1.9460064638614645</v>
+        <v>1.9457842186628989</v>
       </c>
       <c r="G19" s="236">
-        <v>2.5695431974298151</v>
+        <v>2.5694477883722082</v>
       </c>
       <c r="H19" s="236">
-        <v>2.062614229950178</v>
+        <v>2.0630014146340492</v>
       </c>
       <c r="I19" s="236">
-        <v>0.11696395352098078</v>
+        <v>0.11695319898298184</v>
       </c>
       <c r="J19" s="236">
-        <v>0.3165197786031092</v>
+        <v>0.31652077187039712</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -17906,28 +17906,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.2644221929979036</v>
+        <v>3.2644182639102648</v>
       </c>
       <c r="C20" s="236">
-        <v>2.0042220406210651</v>
+        <v>2.0042218467002435</v>
       </c>
       <c r="D20" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="E20" s="236">
-        <v>1.557927467289888</v>
+        <v>1.5579200431762641</v>
       </c>
       <c r="F20" s="237">
-        <v>1.6027712721947691</v>
+        <v>1.6027390247979798</v>
       </c>
       <c r="G20" s="236">
-        <v>1.6987369491314428</v>
+        <v>1.6986984320536889</v>
       </c>
       <c r="H20" s="236">
-        <v>1.737762143551254</v>
+        <v>1.7377692822340765</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0805276971563596</v>
+        <v>1.080527580129524</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -17970,28 +17970,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -18001,28 +18001,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -18323,31 +18323,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>26.8690089671712</v>
+        <v>26.8641402738059</v>
       </c>
       <c r="C49" s="246">
-        <v>26.6881589097806</v>
+        <v>26.6848447570079</v>
       </c>
       <c r="D49" s="246">
-        <v>56.4972339780764</v>
+        <v>56.487582190421996</v>
       </c>
       <c r="E49" s="246">
-        <v>104.214796410364</v>
+        <v>104.199598635592</v>
       </c>
       <c r="F49" s="246">
-        <v>93.2132508609633</v>
+        <v>93.1886960223601</v>
       </c>
       <c r="G49" s="246">
-        <v>185.018709270081</v>
+        <v>185.034988332397</v>
       </c>
       <c r="H49" s="246">
-        <v>327.07828531137596</v>
+        <v>327.10925647407396</v>
       </c>
       <c r="I49" s="246">
-        <v>161.229558678873</v>
+        <v>161.23989570102899</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613314494</v>
+        <v>26.190997613312106</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -18358,31 +18358,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>26.8690089671712</v>
+        <v>26.8641402738059</v>
       </c>
       <c r="C50" s="248">
-        <v>26.6881589097806</v>
+        <v>26.6848447570079</v>
       </c>
       <c r="D50" s="248">
-        <v>56.4972339780764</v>
+        <v>56.487582190421996</v>
       </c>
       <c r="E50" s="248">
-        <v>104.214796410364</v>
+        <v>104.199598635592</v>
       </c>
       <c r="F50" s="248">
-        <v>93.2132508609633</v>
+        <v>93.1886960223601</v>
       </c>
       <c r="G50" s="248">
-        <v>185.018709270081</v>
+        <v>185.034988332397</v>
       </c>
       <c r="H50" s="248">
-        <v>327.07828531137596</v>
+        <v>327.10925647407396</v>
       </c>
       <c r="I50" s="248">
-        <v>161.229558678873</v>
+        <v>161.23989570102899</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613314494</v>
+        <v>26.190997613312106</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -18393,31 +18393,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>3.6601463428823</v>
+        <v>3.6590193580537003</v>
       </c>
       <c r="C51" s="246">
-        <v>3.7787693971095</v>
+        <v>3.7782287351129997</v>
       </c>
       <c r="D51" s="246">
-        <v>8.51600579119</v>
+        <v>8.514422968236401</v>
       </c>
       <c r="E51" s="246">
-        <v>17.7757025526078</v>
+        <v>17.7733209389415</v>
       </c>
       <c r="F51" s="246">
-        <v>18.9174687456422</v>
+        <v>18.914143016922097</v>
       </c>
       <c r="G51" s="246">
-        <v>35.4269770291935</v>
+        <v>35.4457591734184</v>
       </c>
       <c r="H51" s="246">
-        <v>42.3320690641825</v>
+        <v>42.318747010730895</v>
       </c>
       <c r="I51" s="246">
-        <v>11.3348162633518</v>
+        <v>11.338313984743799</v>
       </c>
       <c r="J51" s="246">
-        <v>2.2580448138403995</v>
+        <v>2.2580448138402005</v>
       </c>
       <c r="K51" s="246">
         <v>144</v>
@@ -18428,31 +18428,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>3.6601463428823</v>
+        <v>3.6590193580537003</v>
       </c>
       <c r="C52" s="248">
-        <v>3.7787693971095</v>
+        <v>3.7782287351129997</v>
       </c>
       <c r="D52" s="248">
-        <v>8.51600579119</v>
+        <v>8.514422968236401</v>
       </c>
       <c r="E52" s="248">
-        <v>17.7757025526078</v>
+        <v>17.7733209389415</v>
       </c>
       <c r="F52" s="248">
-        <v>18.9174687456422</v>
+        <v>18.914143016922097</v>
       </c>
       <c r="G52" s="248">
-        <v>35.4269770291935</v>
+        <v>35.4457591734184</v>
       </c>
       <c r="H52" s="248">
-        <v>42.3320690641825</v>
+        <v>42.318747010730895</v>
       </c>
       <c r="I52" s="248">
-        <v>11.3348162633518</v>
+        <v>11.338313984743799</v>
       </c>
       <c r="J52" s="248">
-        <v>2.2580448138403995</v>
+        <v>2.2580448138402005</v>
       </c>
       <c r="K52" s="248">
         <v>144</v>
@@ -18463,31 +18463,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>30.5291553100535</v>
+        <v>30.523159631859603</v>
       </c>
       <c r="C53" s="248">
-        <v>30.4669283068901</v>
+        <v>30.463073492120902</v>
       </c>
       <c r="D53" s="248">
-        <v>65.0132397692664</v>
+        <v>65.0020051586584</v>
       </c>
       <c r="E53" s="248">
-        <v>121.99049896297179</v>
+        <v>121.97291957453351</v>
       </c>
       <c r="F53" s="248">
-        <v>112.1307196066055</v>
+        <v>112.1028390392822</v>
       </c>
       <c r="G53" s="248">
-        <v>220.44568629927451</v>
+        <v>220.4807475058154</v>
       </c>
       <c r="H53" s="248">
-        <v>369.41035437555848</v>
+        <v>369.42800348480489</v>
       </c>
       <c r="I53" s="248">
-        <v>172.56437494222479</v>
+        <v>172.57820968577278</v>
       </c>
       <c r="J53" s="248">
-        <v>28.449042427155064</v>
+        <v>28.449042427152335</v>
       </c>
       <c r="K53" s="248">
         <v>1151</v>
@@ -18498,31 +18498,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2030.3847538621997</v>
+        <v>2030.3787581840056</v>
       </c>
       <c r="C54" s="248">
-        <v>30.4669283068901</v>
+        <v>30.463073492120902</v>
       </c>
       <c r="D54" s="248">
-        <v>65.0132397692664</v>
+        <v>65.0020051586584</v>
       </c>
       <c r="E54" s="248">
-        <v>718.96035656931622</v>
+        <v>718.9427771808779</v>
       </c>
       <c r="F54" s="248">
-        <v>741.979158560513</v>
+        <v>741.95127799318971</v>
       </c>
       <c r="G54" s="248">
-        <v>735.99127564258083</v>
+        <v>736.02633684912189</v>
       </c>
       <c r="H54" s="248">
-        <v>369.41035437555848</v>
+        <v>369.42800348480489</v>
       </c>
       <c r="I54" s="248">
-        <v>172.56437494222479</v>
+        <v>172.57820968577278</v>
       </c>
       <c r="J54" s="248">
-        <v>33.229557971450049</v>
+        <v>33.229557971446411</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -18708,31 +18708,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>4202.56899619097</v>
+        <v>4202.52561410039</v>
       </c>
       <c r="C60" s="246">
-        <v>3830.28332096187</v>
+        <v>3830.3320108511402</v>
       </c>
       <c r="D60" s="246">
-        <v>7959.7410632321</v>
+        <v>7959.70032377362</v>
       </c>
       <c r="E60" s="246">
-        <v>12613.0785549885</v>
+        <v>12612.7617841269</v>
       </c>
       <c r="F60" s="246">
-        <v>8056.70273158277</v>
+        <v>8055.2018939269</v>
       </c>
       <c r="G60" s="246">
-        <v>9901.84940478833</v>
+        <v>9901.18845541543</v>
       </c>
       <c r="H60" s="246">
-        <v>9836.25680505906</v>
+        <v>9839.313077768</v>
       </c>
       <c r="I60" s="246">
-        <v>2683.4611469925503</v>
+        <v>2682.90429185709</v>
       </c>
       <c r="J60" s="246">
-        <v>325.05797620384692</v>
+        <v>325.07254818052752</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -18778,31 +18778,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>4288.50395098324</v>
+        <v>4288.46056889266</v>
       </c>
       <c r="C62" s="248">
-        <v>3907.4049591420776</v>
+        <v>3907.453649031348</v>
       </c>
       <c r="D62" s="248">
-        <v>8083.9216732663726</v>
+        <v>8083.8809338078927</v>
       </c>
       <c r="E62" s="248">
-        <v>12750.03728626185</v>
+        <v>12749.72051540025</v>
       </c>
       <c r="F62" s="248">
-        <v>8131.45537371004</v>
+        <v>8129.95453605417</v>
       </c>
       <c r="G62" s="248">
-        <v>9966.5294851864546</v>
+        <v>9965.8685358135535</v>
       </c>
       <c r="H62" s="248">
-        <v>9866.8687981620333</v>
+        <v>9869.9250708709733</v>
       </c>
       <c r="I62" s="248">
-        <v>2685.190326066102</v>
+        <v>2684.6334709306416</v>
       </c>
       <c r="J62" s="248">
-        <v>331.0881472218316</v>
+        <v>331.1027191985122</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -18813,31 +18813,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>4450.8559399099368</v>
+        <v>4450.8125578193567</v>
       </c>
       <c r="C63" s="248">
-        <v>4055.8417462408706</v>
+        <v>4055.8904361301411</v>
       </c>
       <c r="D63" s="248">
-        <v>8343.5410795571115</v>
+        <v>8343.5003400986316</v>
       </c>
       <c r="E63" s="248">
-        <v>13138.939925035753</v>
+        <v>13138.623154174153</v>
       </c>
       <c r="F63" s="248">
-        <v>8402.7827246618217</v>
+        <v>8401.2818870059509</v>
       </c>
       <c r="G63" s="248">
-        <v>10284.523157656535</v>
+        <v>10283.862208283636</v>
       </c>
       <c r="H63" s="248">
-        <v>10096.96132449582</v>
+        <v>10100.01759720476</v>
       </c>
       <c r="I63" s="248">
-        <v>2685.190326066102</v>
+        <v>2684.6334709306416</v>
       </c>
       <c r="J63" s="248">
-        <v>358.36377637604892</v>
+        <v>358.37834835273679</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -18953,31 +18953,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>5668.9053478830547</v>
+        <v>5668.8619657924755</v>
       </c>
       <c r="C67" s="248">
-        <v>4809.3258163835108</v>
+        <v>4809.37450627278</v>
       </c>
       <c r="D67" s="248">
-        <v>11393.852842239627</v>
+        <v>11393.812102781147</v>
       </c>
       <c r="E67" s="248">
-        <v>16190.686877584054</v>
+        <v>16190.370106722454</v>
       </c>
       <c r="F67" s="248">
-        <v>10482.229447334059</v>
+        <v>10480.72860967819</v>
       </c>
       <c r="G67" s="248">
-        <v>13154.169102251264</v>
+        <v>13153.508152878363</v>
       </c>
       <c r="H67" s="248">
-        <v>13662.037417905092</v>
+        <v>13665.093690614034</v>
       </c>
       <c r="I67" s="248">
-        <v>5403.0512378146614</v>
+        <v>5402.4943826792</v>
       </c>
       <c r="J67" s="248">
-        <v>606.74191060465819</v>
+        <v>606.75648258134606</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -19233,31 +19233,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>6741.37698093618</v>
+        <v>6741.3335988456</v>
       </c>
       <c r="C75" s="248">
-        <v>5894.6960156537079</v>
+        <v>5894.7447055429775</v>
       </c>
       <c r="D75" s="248">
-        <v>14260.594110242184</v>
+        <v>14260.553370783706</v>
       </c>
       <c r="E75" s="248">
-        <v>20027.751224857358</v>
+        <v>20027.43445399576</v>
       </c>
       <c r="F75" s="248">
-        <v>12643.666798934983</v>
+        <v>12642.165961279115</v>
       </c>
       <c r="G75" s="248">
-        <v>16120.339984327964</v>
+        <v>16119.679034955065</v>
       </c>
       <c r="H75" s="248">
-        <v>16006.017569468095</v>
+        <v>16009.073842177035</v>
       </c>
       <c r="I75" s="248">
-        <v>5733.2041375643312</v>
+        <v>5732.64728242887</v>
       </c>
       <c r="J75" s="248">
-        <v>938.3531780152116</v>
+        <v>938.36774999188492</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -19408,31 +19408,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>41024.761734798376</v>
+        <v>41024.71235702961</v>
       </c>
       <c r="C80" s="248">
-        <v>5925.1629439605977</v>
+        <v>5925.2077790350986</v>
       </c>
       <c r="D80" s="248">
-        <v>14325.607350011451</v>
+        <v>14325.555375942364</v>
       </c>
       <c r="E80" s="248">
-        <v>20746.711581426676</v>
+        <v>20746.377231176637</v>
       </c>
       <c r="F80" s="248">
-        <v>13385.645957495495</v>
+        <v>13384.117239272304</v>
       </c>
       <c r="G80" s="248">
-        <v>16856.331259970546</v>
+        <v>16855.705371804186</v>
       </c>
       <c r="H80" s="248">
-        <v>16375.427923843652</v>
+        <v>16378.50184566184</v>
       </c>
       <c r="I80" s="248">
-        <v>5905.7685125065555</v>
+        <v>5905.2254921146423</v>
       </c>
       <c r="J80" s="248">
-        <v>4643.5827359866526</v>
+        <v>4643.5973079633259</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -19788,31 +19788,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>28457.526460269437</v>
+        <v>28457.477082500667</v>
       </c>
       <c r="C94" s="248">
-        <v>-4933.1123922061715</v>
+        <v>-4933.0675571316706</v>
       </c>
       <c r="D94" s="248">
-        <v>-2684.0626280944589</v>
+        <v>-2684.1146021635459</v>
       </c>
       <c r="E94" s="248">
-        <v>8533.585151879166</v>
+        <v>8533.2508016291267</v>
       </c>
       <c r="F94" s="248">
-        <v>6507.1251477884562</v>
+        <v>6505.5964295652639</v>
       </c>
       <c r="G94" s="248">
-        <v>10296.281490489695</v>
+        <v>10295.655602323335</v>
       </c>
       <c r="H94" s="248">
-        <v>8436.2662104876854</v>
+        <v>8439.3401323058715</v>
       </c>
       <c r="I94" s="248">
-        <v>-44586.441563542125</v>
+        <v>-44586.984583934049</v>
       </c>
       <c r="J94" s="248">
-        <v>4722.83212292831</v>
+        <v>4722.846694904998</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
@@ -20002,31 +20002,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>40603.832822266682</v>
+        <v>40603.794359672422</v>
       </c>
       <c r="C9" s="231">
-        <v>5570.4694145034555</v>
+        <v>5570.4871460627346</v>
       </c>
       <c r="D9" s="231">
-        <v>13635.421635380099</v>
+        <v>13635.275068983854</v>
       </c>
       <c r="E9" s="231">
-        <v>20053.817104034246</v>
+        <v>20053.441260243824</v>
       </c>
       <c r="F9" s="231">
-        <v>13208.058434636308</v>
+        <v>13206.639645728048</v>
       </c>
       <c r="G9" s="231">
-        <v>17096.693050662892</v>
+        <v>17096.037685994226</v>
       </c>
       <c r="H9" s="231">
-        <v>17512.095308703163</v>
+        <v>17515.085091383033</v>
       </c>
       <c r="I9" s="231">
-        <v>6840.7993984506093</v>
+        <v>6840.4133216476976</v>
       </c>
       <c r="J9" s="231">
-        <v>4667.8128313625348</v>
+        <v>4667.8264202841674</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -20052,28 +20052,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>40603.832822266682</v>
+        <v>40603.794359672422</v>
       </c>
       <c r="C11" s="231">
-        <v>46174.302236770134</v>
+        <v>46174.281505735154</v>
       </c>
       <c r="D11" s="231">
-        <v>59809.723872150236</v>
+        <v>59809.556574719012</v>
       </c>
       <c r="E11" s="231">
-        <v>79863.540976184478</v>
+        <v>79862.997834962836</v>
       </c>
       <c r="F11" s="231">
-        <v>93071.599410820781</v>
+        <v>93069.637480690886</v>
       </c>
       <c r="G11" s="231">
-        <v>110168.29246148368</v>
+        <v>110165.67516668511</v>
       </c>
       <c r="H11" s="231">
-        <v>127680.38777018685</v>
+        <v>127680.76025806814</v>
       </c>
       <c r="I11" s="231">
-        <v>134521.18716863747</v>
+        <v>134521.17357971583</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -20190,31 +20190,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>27983.721632855642</v>
+        <v>27983.683170261382</v>
       </c>
       <c r="C15" s="231">
-        <v>-5308.9196722737142</v>
+        <v>-5308.9019407144351</v>
       </c>
       <c r="D15" s="231">
-        <v>-3381.139906864013</v>
+        <v>-3381.2864732602575</v>
       </c>
       <c r="E15" s="231">
-        <v>7836.9318242527443</v>
+        <v>7836.5559804623226</v>
       </c>
       <c r="F15" s="231">
-        <v>6329.1537204165588</v>
+        <v>6327.7349315082984</v>
       </c>
       <c r="G15" s="231">
-        <v>10531.219768690613</v>
+        <v>10530.564404021947</v>
       </c>
       <c r="H15" s="231">
-        <v>9551.7124136890634</v>
+        <v>9554.7021963689331</v>
       </c>
       <c r="I15" s="231">
-        <v>-43664.813456662094</v>
+        <v>-43665.199533465006</v>
       </c>
       <c r="J15" s="231">
-        <v>-9877.86632410479</v>
+        <v>-9877.8527351831581</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -20223,31 +20223,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.20104837043771881</v>
+        <v>0.20104809410414173</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.038141804828497328</v>
+        <v>-0.038141677436539061</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.024291717785629708</v>
+        <v>-0.024292770788354377</v>
       </c>
       <c r="E16" s="236">
-        <v>0.056304246917879608</v>
+        <v>0.056301546677268478</v>
       </c>
       <c r="F16" s="237">
-        <v>0.045471651642130906</v>
+        <v>0.04546145838757587</v>
       </c>
       <c r="G16" s="236">
-        <v>0.075661293411768263</v>
+        <v>0.075656584960176063</v>
       </c>
       <c r="H16" s="236">
-        <v>0.068624046538800221</v>
+        <v>0.06864552656006534</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.31370879492389553</v>
+        <v>-0.31371156868333711</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.070967291410275163</v>
+        <v>-0.070967193780996765</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -20256,28 +20256,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>27983.721632855642</v>
+        <v>27983.683170261382</v>
       </c>
       <c r="C17" s="231">
-        <v>22674.801960581925</v>
+        <v>22674.781229546945</v>
       </c>
       <c r="D17" s="231">
-        <v>19293.662053717911</v>
+        <v>19293.494756286687</v>
       </c>
       <c r="E17" s="231">
-        <v>27130.593877970648</v>
+        <v>27130.050736749006</v>
       </c>
       <c r="F17" s="231">
-        <v>33459.7475983872</v>
+        <v>33457.785668257304</v>
       </c>
       <c r="G17" s="231">
-        <v>43990.967367077814</v>
+        <v>43988.350072279238</v>
       </c>
       <c r="H17" s="231">
-        <v>53542.679780766877</v>
+        <v>53543.052268648171</v>
       </c>
       <c r="I17" s="231">
-        <v>9877.86632410479</v>
+        <v>9877.8527351831581</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -20289,28 +20289,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.20104837043771881</v>
+        <v>0.20104809410414173</v>
       </c>
       <c r="C18" s="236">
-        <v>0.16290656560922145</v>
+        <v>0.16290641666760267</v>
       </c>
       <c r="D18" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="E18" s="236">
-        <v>0.19491909474147129</v>
+        <v>0.19491519255651671</v>
       </c>
       <c r="F18" s="237">
-        <v>0.24039074638360217</v>
+        <v>0.24037665094409261</v>
       </c>
       <c r="G18" s="236">
-        <v>0.31605203979537039</v>
+        <v>0.31603323590426857</v>
       </c>
       <c r="H18" s="236">
-        <v>0.38467608633417066</v>
+        <v>0.38467876246433391</v>
       </c>
       <c r="I18" s="236">
-        <v>0.070967291410275163</v>
+        <v>0.070967193780996765</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -20322,31 +20322,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.217391052492113</v>
+        <v>3.2173880047698162</v>
       </c>
       <c r="C19" s="236">
-        <v>0.512020424131518</v>
+        <v>0.51202205396193756</v>
       </c>
       <c r="D19" s="236">
-        <v>0.80130298953344747</v>
+        <v>0.8012943763717415</v>
       </c>
       <c r="E19" s="236">
-        <v>1.6414836224436502</v>
+        <v>1.6414528581545687</v>
       </c>
       <c r="F19" s="237">
-        <v>1.9200816094069786</v>
+        <v>1.9198753572538811</v>
       </c>
       <c r="G19" s="236">
-        <v>2.6040305574934903</v>
+        <v>2.6039307376266629</v>
       </c>
       <c r="H19" s="236">
-        <v>2.1999061527142971</v>
+        <v>2.2002817354870481</v>
       </c>
       <c r="I19" s="236">
-        <v>0.13544631995804229</v>
+        <v>0.1354386757224596</v>
       </c>
       <c r="J19" s="236">
-        <v>0.320907176727326</v>
+        <v>0.320908110951262</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -20355,28 +20355,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.217391052492113</v>
+        <v>3.2173880047698162</v>
       </c>
       <c r="C20" s="236">
-        <v>1.9649057083804482</v>
+        <v>1.9649048261899873</v>
       </c>
       <c r="D20" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="E20" s="236">
-        <v>1.5144903778550549</v>
+        <v>1.5144800780092935</v>
       </c>
       <c r="F20" s="237">
-        <v>1.5612935445063343</v>
+        <v>1.5612606327602598</v>
       </c>
       <c r="G20" s="236">
-        <v>1.6647438122396472</v>
+        <v>1.6647042625178223</v>
       </c>
       <c r="H20" s="236">
-        <v>1.722205760507296</v>
+        <v>1.7222107847775545</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0792490625023177</v>
+        <v>1.0792489534798562</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -20419,28 +20419,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -20450,28 +20450,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -20772,31 +20772,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>21.3412824511917</v>
+        <v>21.3399042150862</v>
       </c>
       <c r="C49" s="246">
-        <v>21.5375515526467</v>
+        <v>21.5367059733296</v>
       </c>
       <c r="D49" s="246">
-        <v>45.658511613372</v>
+        <v>45.655549339083507</v>
       </c>
       <c r="E49" s="246">
-        <v>88.6995645471948</v>
+        <v>88.6940494111906</v>
       </c>
       <c r="F49" s="246">
-        <v>82.6219927194059</v>
+        <v>82.610714666193289</v>
       </c>
       <c r="G49" s="246">
-        <v>177.714330084806</v>
+        <v>177.719331492167</v>
       </c>
       <c r="H49" s="246">
-        <v>363.900860226774</v>
+        <v>363.90447581041803</v>
       </c>
       <c r="I49" s="246">
-        <v>179.334909191296</v>
+        <v>179.348271479218</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613312902</v>
+        <v>26.190997613313812</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -20807,31 +20807,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>21.3412824511917</v>
+        <v>21.3399042150862</v>
       </c>
       <c r="C50" s="248">
-        <v>21.5375515526467</v>
+        <v>21.5367059733296</v>
       </c>
       <c r="D50" s="248">
-        <v>45.658511613372</v>
+        <v>45.655549339083507</v>
       </c>
       <c r="E50" s="248">
-        <v>88.6995645471948</v>
+        <v>88.6940494111906</v>
       </c>
       <c r="F50" s="248">
-        <v>82.6219927194059</v>
+        <v>82.610714666193289</v>
       </c>
       <c r="G50" s="248">
-        <v>177.714330084806</v>
+        <v>177.719331492167</v>
       </c>
       <c r="H50" s="248">
-        <v>363.900860226774</v>
+        <v>363.90447581041803</v>
       </c>
       <c r="I50" s="248">
-        <v>179.334909191296</v>
+        <v>179.348271479218</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613312902</v>
+        <v>26.190997613313812</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -20842,31 +20842,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>3.0646875881075997</v>
+        <v>3.064162274375</v>
       </c>
       <c r="C51" s="246">
-        <v>3.4615230070555</v>
+        <v>3.4612246692437996</v>
       </c>
       <c r="D51" s="246">
-        <v>8.4954965150445</v>
+        <v>8.4946117523487</v>
       </c>
       <c r="E51" s="246">
-        <v>19.2928014238028</v>
+        <v>19.2930017808883</v>
       </c>
       <c r="F51" s="246">
-        <v>20.9524333096493</v>
+        <v>20.9485075751234</v>
       </c>
       <c r="G51" s="246">
-        <v>35.838768623249</v>
+        <v>35.8472004493203</v>
       </c>
       <c r="H51" s="246">
-        <v>40.807371339211194</v>
+        <v>40.8039542910347</v>
       </c>
       <c r="I51" s="246">
-        <v>9.828873380040001</v>
+        <v>9.8292923938258987</v>
       </c>
       <c r="J51" s="246">
-        <v>2.2580448138401152</v>
+        <v>2.2580448138398879</v>
       </c>
       <c r="K51" s="246">
         <v>144</v>
@@ -20877,31 +20877,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>3.0646875881075997</v>
+        <v>3.064162274375</v>
       </c>
       <c r="C52" s="248">
-        <v>3.4615230070555</v>
+        <v>3.4612246692437996</v>
       </c>
       <c r="D52" s="248">
-        <v>8.4954965150445</v>
+        <v>8.4946117523487</v>
       </c>
       <c r="E52" s="248">
-        <v>19.2928014238028</v>
+        <v>19.2930017808883</v>
       </c>
       <c r="F52" s="248">
-        <v>20.9524333096493</v>
+        <v>20.9485075751234</v>
       </c>
       <c r="G52" s="248">
-        <v>35.838768623249</v>
+        <v>35.8472004493203</v>
       </c>
       <c r="H52" s="248">
-        <v>40.807371339211194</v>
+        <v>40.8039542910347</v>
       </c>
       <c r="I52" s="248">
-        <v>9.828873380040001</v>
+        <v>9.8292923938258987</v>
       </c>
       <c r="J52" s="248">
-        <v>2.2580448138401152</v>
+        <v>2.2580448138398879</v>
       </c>
       <c r="K52" s="248">
         <v>144</v>
@@ -20912,31 +20912,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>24.4059700392993</v>
+        <v>24.4040664894612</v>
       </c>
       <c r="C53" s="248">
-        <v>24.9990745597022</v>
+        <v>24.9979306425734</v>
       </c>
       <c r="D53" s="248">
-        <v>54.1540081284165</v>
+        <v>54.1501610914322</v>
       </c>
       <c r="E53" s="248">
-        <v>107.9923659709976</v>
+        <v>107.98705119207889</v>
       </c>
       <c r="F53" s="248">
-        <v>103.5744260290552</v>
+        <v>103.55922224131669</v>
       </c>
       <c r="G53" s="248">
-        <v>213.553098708055</v>
+        <v>213.56653194148728</v>
       </c>
       <c r="H53" s="248">
-        <v>404.70823156598522</v>
+        <v>404.70843010145273</v>
       </c>
       <c r="I53" s="248">
-        <v>189.163782571336</v>
+        <v>189.17756387304391</v>
       </c>
       <c r="J53" s="248">
-        <v>28.449042427153017</v>
+        <v>28.4490424271537</v>
       </c>
       <c r="K53" s="248">
         <v>1151</v>
@@ -20947,31 +20947,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2024.2615685914452</v>
+        <v>2024.2596650416072</v>
       </c>
       <c r="C54" s="248">
-        <v>24.9990745597022</v>
+        <v>24.9979306425734</v>
       </c>
       <c r="D54" s="248">
-        <v>54.1540081284165</v>
+        <v>54.1501610914322</v>
       </c>
       <c r="E54" s="248">
-        <v>704.962223577342</v>
+        <v>704.95690879842323</v>
       </c>
       <c r="F54" s="248">
-        <v>733.42286498296289</v>
+        <v>733.40766119522425</v>
       </c>
       <c r="G54" s="248">
-        <v>729.09868805136136</v>
+        <v>729.1121212847936</v>
       </c>
       <c r="H54" s="248">
-        <v>404.70823156598522</v>
+        <v>404.70843010145273</v>
       </c>
       <c r="I54" s="248">
-        <v>189.163782571336</v>
+        <v>189.17756387304391</v>
       </c>
       <c r="J54" s="248">
-        <v>33.229557971447321</v>
+        <v>33.22955797144823</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -21157,31 +21157,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>3788.59391904444</v>
+        <v>3788.5573600000102</v>
       </c>
       <c r="C60" s="246">
-        <v>3482.4881483717204</v>
+        <v>3482.50702384813</v>
       </c>
       <c r="D60" s="246">
-        <v>7283.82492889571</v>
+        <v>7283.68220953645</v>
       </c>
       <c r="E60" s="246">
-        <v>11944.6373260807</v>
+        <v>11944.2667970692</v>
       </c>
       <c r="F60" s="246">
-        <v>7893.79183806378</v>
+        <v>7892.3882529432594</v>
       </c>
       <c r="G60" s="246">
-        <v>10153.332931088398</v>
+        <v>10152.6641331863</v>
       </c>
       <c r="H60" s="246">
-        <v>10951.1359325394</v>
+        <v>10954.1255166838</v>
       </c>
       <c r="I60" s="246">
-        <v>3563.2794544573903</v>
+        <v>3562.87959635277</v>
       </c>
       <c r="J60" s="246">
-        <v>347.91552145846072</v>
+        <v>347.92911038007878</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -21227,31 +21227,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>3874.33970008993</v>
+        <v>3874.3031410455</v>
       </c>
       <c r="C62" s="248">
-        <v>3559.3820954875496</v>
+        <v>3559.400970963959</v>
       </c>
       <c r="D62" s="248">
-        <v>7407.72568658028</v>
+        <v>7407.58296722102</v>
       </c>
       <c r="E62" s="248">
-        <v>12081.468360209561</v>
+        <v>12081.097831198062</v>
       </c>
       <c r="F62" s="248">
-        <v>7968.6821988951833</v>
+        <v>7967.2786137746625</v>
       </c>
       <c r="G62" s="248">
-        <v>10218.347266888957</v>
+        <v>10217.678468986858</v>
       </c>
       <c r="H62" s="248">
-        <v>10982.041024394104</v>
+        <v>10985.030608538506</v>
       </c>
       <c r="I62" s="248">
-        <v>3565.0521413439806</v>
+        <v>3564.6522832393603</v>
       </c>
       <c r="J62" s="248">
-        <v>353.96152611045545</v>
+        <v>353.97511503207352</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -21262,31 +21262,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>4036.6916890166272</v>
+        <v>4036.6551299721973</v>
       </c>
       <c r="C63" s="248">
-        <v>3707.8188825863422</v>
+        <v>3707.8377580627521</v>
       </c>
       <c r="D63" s="248">
-        <v>7667.345092871019</v>
+        <v>7667.2023735117582</v>
       </c>
       <c r="E63" s="248">
-        <v>12467.094652386466</v>
+        <v>12466.724123374965</v>
       </c>
       <c r="F63" s="248">
-        <v>8238.85685910058</v>
+        <v>8237.45327398006</v>
       </c>
       <c r="G63" s="248">
-        <v>10536.951457247476</v>
+        <v>10536.282659345377</v>
       </c>
       <c r="H63" s="248">
-        <v>11215.873597043976</v>
+        <v>11218.863181188377</v>
       </c>
       <c r="I63" s="248">
-        <v>3565.0521413439806</v>
+        <v>3564.6522832393603</v>
       </c>
       <c r="J63" s="248">
-        <v>381.31562840354309</v>
+        <v>381.32921732515388</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -21402,31 +21402,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>5254.36882452742</v>
+        <v>5254.33226548299</v>
       </c>
       <c r="C67" s="248">
-        <v>4460.3887858954222</v>
+        <v>4460.4076613718316</v>
       </c>
       <c r="D67" s="248">
-        <v>10714.668070579048</v>
+        <v>10714.525351219789</v>
       </c>
       <c r="E67" s="248">
-        <v>15511.876608618193</v>
+        <v>15511.506079606694</v>
       </c>
       <c r="F67" s="248">
-        <v>10313.152916043338</v>
+        <v>10311.749330922816</v>
       </c>
       <c r="G67" s="248">
-        <v>13401.143635315981</v>
+        <v>13400.474837413882</v>
       </c>
       <c r="H67" s="248">
-        <v>14763.002354317301</v>
+        <v>14765.991938461702</v>
       </c>
       <c r="I67" s="248">
-        <v>6321.4434925534424</v>
+        <v>6321.0436344488226</v>
       </c>
       <c r="J67" s="248">
-        <v>630.95531214984658</v>
+        <v>630.96890107147919</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -21682,31 +21682,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>6326.571253675238</v>
+        <v>6326.5346946308082</v>
       </c>
       <c r="C75" s="248">
-        <v>5545.4703399437531</v>
+        <v>5545.4892154201616</v>
       </c>
       <c r="D75" s="248">
-        <v>13581.267627251682</v>
+        <v>13581.124907892423</v>
       </c>
       <c r="E75" s="248">
-        <v>19348.854880456904</v>
+        <v>19348.484351445404</v>
       </c>
       <c r="F75" s="248">
-        <v>12474.635569653345</v>
+        <v>12473.231984532824</v>
       </c>
       <c r="G75" s="248">
-        <v>16367.594362611535</v>
+        <v>16366.925564709434</v>
       </c>
       <c r="H75" s="248">
-        <v>17107.387077137177</v>
+        <v>17110.376661281578</v>
       </c>
       <c r="I75" s="248">
-        <v>6651.6356158792732</v>
+        <v>6651.2357577746525</v>
       </c>
       <c r="J75" s="248">
-        <v>962.58327339110838</v>
+        <v>962.59686231271189</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -21857,31 +21857,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>40603.832822266682</v>
+        <v>40603.794359672422</v>
       </c>
       <c r="C80" s="248">
-        <v>5570.4694145034555</v>
+        <v>5570.4871460627346</v>
       </c>
       <c r="D80" s="248">
-        <v>13635.421635380099</v>
+        <v>13635.275068983854</v>
       </c>
       <c r="E80" s="248">
-        <v>20053.817104034246</v>
+        <v>20053.441260243824</v>
       </c>
       <c r="F80" s="248">
-        <v>13208.058434636308</v>
+        <v>13206.639645728048</v>
       </c>
       <c r="G80" s="248">
-        <v>17096.693050662892</v>
+        <v>17096.037685994226</v>
       </c>
       <c r="H80" s="248">
-        <v>17512.095308703163</v>
+        <v>17515.085091383033</v>
       </c>
       <c r="I80" s="248">
-        <v>6840.7993984506093</v>
+        <v>6840.4133216476976</v>
       </c>
       <c r="J80" s="248">
-        <v>4667.8128313625348</v>
+        <v>4667.8264202841674</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -22237,31 +22237,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>27983.721632855642</v>
+        <v>27983.683170261378</v>
       </c>
       <c r="C94" s="248">
-        <v>-5308.9196722737142</v>
+        <v>-5308.9019407144351</v>
       </c>
       <c r="D94" s="248">
-        <v>-3381.1399068640117</v>
+        <v>-3381.2864732602557</v>
       </c>
       <c r="E94" s="248">
-        <v>7836.9318242527434</v>
+        <v>7836.5559804623235</v>
       </c>
       <c r="F94" s="248">
-        <v>6329.1537204165579</v>
+        <v>6327.7349315082984</v>
       </c>
       <c r="G94" s="248">
-        <v>10531.219768690615</v>
+        <v>10530.564404021947</v>
       </c>
       <c r="H94" s="248">
-        <v>9551.7124136890616</v>
+        <v>9554.7021963689331</v>
       </c>
       <c r="I94" s="248">
-        <v>-43664.813456662087</v>
+        <v>-43665.199533465006</v>
       </c>
       <c r="J94" s="248">
-        <v>4872.1336758951948</v>
+        <v>4872.1472648168128</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
@@ -22451,31 +22451,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>40244.67925422034</v>
+        <v>40244.656272899119</v>
       </c>
       <c r="C9" s="231">
-        <v>5331.3197009848309</v>
+        <v>5331.3714702760353</v>
       </c>
       <c r="D9" s="231">
-        <v>13112.824476160025</v>
+        <v>13112.791657693495</v>
       </c>
       <c r="E9" s="231">
-        <v>19360.403384113044</v>
+        <v>19360.221465662384</v>
       </c>
       <c r="F9" s="231">
-        <v>12892.336483299787</v>
+        <v>12891.120978892215</v>
       </c>
       <c r="G9" s="231">
-        <v>17173.433876769017</v>
+        <v>17172.811265626053</v>
       </c>
       <c r="H9" s="231">
-        <v>18583.176687004718</v>
+        <v>18585.829836141813</v>
       </c>
       <c r="I9" s="231">
-        <v>7798.8569016797774</v>
+        <v>7798.2220044143323</v>
       </c>
       <c r="J9" s="231">
-        <v>4691.9692357684544</v>
+        <v>4691.9750483945827</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -22501,28 +22501,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>40244.67925422034</v>
+        <v>40244.656272899119</v>
       </c>
       <c r="C11" s="231">
-        <v>45575.99895520517</v>
+        <v>45576.027743175153</v>
       </c>
       <c r="D11" s="231">
-        <v>58688.823431365192</v>
+        <v>58688.819400868648</v>
       </c>
       <c r="E11" s="231">
-        <v>78049.226815478236</v>
+        <v>78049.040866531024</v>
       </c>
       <c r="F11" s="231">
-        <v>90941.563298778026</v>
+        <v>90940.161845423238</v>
       </c>
       <c r="G11" s="231">
-        <v>108114.99717554705</v>
+        <v>108112.97311104929</v>
       </c>
       <c r="H11" s="231">
-        <v>126698.17386255176</v>
+        <v>126698.8029471911</v>
       </c>
       <c r="I11" s="231">
-        <v>134497.03076423155</v>
+        <v>134497.02495160542</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -22639,31 +22639,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>27598.4203276231</v>
+        <v>27598.397346301877</v>
       </c>
       <c r="C15" s="231">
-        <v>-5555.9482811827793</v>
+        <v>-5555.8965118915748</v>
       </c>
       <c r="D15" s="231">
-        <v>-3912.4727157695816</v>
+        <v>-3912.505534236112</v>
       </c>
       <c r="E15" s="231">
-        <v>7119.4928113720944</v>
+        <v>7119.3108929214341</v>
       </c>
       <c r="F15" s="231">
-        <v>6004.0791594535367</v>
+        <v>6002.8636550459651</v>
       </c>
       <c r="G15" s="231">
-        <v>10599.076995628708</v>
+        <v>10598.454384485744</v>
       </c>
       <c r="H15" s="231">
-        <v>10595.980813752998</v>
+        <v>10598.633962890093</v>
       </c>
       <c r="I15" s="231">
-        <v>-42722.785013144479</v>
+        <v>-42723.419910409924</v>
       </c>
       <c r="J15" s="231">
-        <v>-9725.8440977336</v>
+        <v>-9725.8382851074712</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -22672,31 +22672,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.1982801825404529</v>
+        <v>0.19828001743170709</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.03991657588733865</v>
+        <v>-0.039916203952119596</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.028109065484841343</v>
+        <v>-0.028109301268319422</v>
       </c>
       <c r="E16" s="236">
-        <v>0.051149823702822027</v>
+        <v>0.051148516714118457</v>
       </c>
       <c r="F16" s="237">
-        <v>0.043136161330662171</v>
+        <v>0.043127428568679751</v>
       </c>
       <c r="G16" s="236">
-        <v>0.076148812015523551</v>
+        <v>0.076144338880843626</v>
       </c>
       <c r="H16" s="236">
-        <v>0.076126567571812409</v>
+        <v>0.076145629057541131</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.30694081438292165</v>
+        <v>-0.306945375786951</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.069875091406171458</v>
+        <v>-0.0698750496454998</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -22705,28 +22705,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>27598.4203276231</v>
+        <v>27598.397346301877</v>
       </c>
       <c r="C17" s="231">
-        <v>22042.472046440318</v>
+        <v>22042.5008344103</v>
       </c>
       <c r="D17" s="231">
-        <v>18129.999330670733</v>
+        <v>18129.995300174189</v>
       </c>
       <c r="E17" s="231">
-        <v>25249.492142042829</v>
+        <v>25249.306193095617</v>
       </c>
       <c r="F17" s="231">
-        <v>31253.571301496369</v>
+        <v>31252.169848141581</v>
       </c>
       <c r="G17" s="231">
-        <v>41852.648297125081</v>
+        <v>41850.62423262732</v>
       </c>
       <c r="H17" s="231">
-        <v>52448.629110878072</v>
+        <v>52449.25819551741</v>
       </c>
       <c r="I17" s="231">
-        <v>9725.8440977336</v>
+        <v>9725.8382851074712</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -22738,28 +22738,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.1982801825404529</v>
+        <v>0.19828001743170709</v>
       </c>
       <c r="C18" s="236">
-        <v>0.15836360665311425</v>
+        <v>0.15836381347958747</v>
       </c>
       <c r="D18" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="E18" s="236">
-        <v>0.1814043648710949</v>
+        <v>0.18140302892538646</v>
       </c>
       <c r="F18" s="237">
-        <v>0.2245405262017571</v>
+        <v>0.22453045749406619</v>
       </c>
       <c r="G18" s="236">
-        <v>0.30068933821728067</v>
+        <v>0.30067479637490979</v>
       </c>
       <c r="H18" s="236">
-        <v>0.376815905789093</v>
+        <v>0.37682042543245087</v>
       </c>
       <c r="I18" s="236">
-        <v>0.069875091406171458</v>
+        <v>0.0698750496454998</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -22771,31 +22771,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.1823387048938963</v>
+        <v>3.1823368876512355</v>
       </c>
       <c r="C19" s="236">
-        <v>0.48968388669380281</v>
+        <v>0.48968864172429244</v>
       </c>
       <c r="D19" s="236">
-        <v>0.77019650983689214</v>
+        <v>0.770194582207309</v>
       </c>
       <c r="E19" s="236">
-        <v>1.5816146412527803</v>
+        <v>1.581599779739858</v>
       </c>
       <c r="F19" s="237">
-        <v>1.8716397888720266</v>
+        <v>1.8714633285061568</v>
       </c>
       <c r="G19" s="236">
-        <v>2.6121846117046079</v>
+        <v>2.6120899087314928</v>
       </c>
       <c r="H19" s="236">
-        <v>2.3266208794550569</v>
+        <v>2.3269530547490147</v>
       </c>
       <c r="I19" s="236">
-        <v>0.15436665567655289</v>
+        <v>0.15435408883902776</v>
       </c>
       <c r="J19" s="236">
-        <v>0.32542862965675434</v>
+        <v>0.32542903281262781</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -22804,28 +22804,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.1823387048938963</v>
+        <v>3.1823368876512355</v>
       </c>
       <c r="C20" s="236">
-        <v>1.9366412493926186</v>
+        <v>1.9366424726673999</v>
       </c>
       <c r="D20" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="E20" s="236">
-        <v>1.4782124815249562</v>
+        <v>1.478208959746895</v>
       </c>
       <c r="F20" s="237">
-        <v>1.523615726642634</v>
+        <v>1.5235922469893923</v>
       </c>
       <c r="G20" s="236">
-        <v>1.6316203546287837</v>
+        <v>1.6315898084055964</v>
       </c>
       <c r="H20" s="236">
-        <v>1.7063831742846585</v>
+        <v>1.7063916468570013</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0779494397511014</v>
+        <v>1.0779493931648156</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -22868,28 +22868,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -22899,28 +22899,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -23221,31 +23221,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>19.4742944365623</v>
+        <v>19.473823646251798</v>
       </c>
       <c r="C49" s="246">
-        <v>19.7181546725146</v>
+        <v>19.7179479207192</v>
       </c>
       <c r="D49" s="246">
-        <v>41.659438452567095</v>
+        <v>41.658248079734</v>
       </c>
       <c r="E49" s="246">
-        <v>82.0855089710263</v>
+        <v>82.0821293659876</v>
       </c>
       <c r="F49" s="246">
-        <v>77.4136150716047</v>
+        <v>77.4060309806678</v>
       </c>
       <c r="G49" s="246">
-        <v>167.94020731305798</v>
+        <v>167.944801243249</v>
       </c>
       <c r="H49" s="246">
-        <v>379.541182424861</v>
+        <v>379.54028823109303</v>
       </c>
       <c r="I49" s="246">
-        <v>192.976601044492</v>
+        <v>192.985732918985</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613314153</v>
+        <v>26.190997613312561</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -23256,31 +23256,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>19.4742944365623</v>
+        <v>19.473823646251798</v>
       </c>
       <c r="C50" s="248">
-        <v>19.7181546725146</v>
+        <v>19.7179479207192</v>
       </c>
       <c r="D50" s="248">
-        <v>41.659438452567095</v>
+        <v>41.658248079734</v>
       </c>
       <c r="E50" s="248">
-        <v>82.0855089710263</v>
+        <v>82.0821293659876</v>
       </c>
       <c r="F50" s="248">
-        <v>77.4136150716047</v>
+        <v>77.4060309806678</v>
       </c>
       <c r="G50" s="248">
-        <v>167.94020731305798</v>
+        <v>167.944801243249</v>
       </c>
       <c r="H50" s="248">
-        <v>379.541182424861</v>
+        <v>379.54028823109303</v>
       </c>
       <c r="I50" s="248">
-        <v>192.976601044492</v>
+        <v>192.985732918985</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613314153</v>
+        <v>26.190997613312561</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -23291,28 +23291,28 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>2.8528066758171997</v>
+        <v>2.8524301867207</v>
       </c>
       <c r="C51" s="246">
-        <v>3.4332327021279996</v>
+        <v>3.4330923353973</v>
       </c>
       <c r="D51" s="246">
-        <v>9.0365312358379</v>
+        <v>9.0363051860498</v>
       </c>
       <c r="E51" s="246">
-        <v>21.4856949378166</v>
+        <v>21.485735167990597</v>
       </c>
       <c r="F51" s="246">
-        <v>20.948828985269703</v>
+        <v>20.945998367965302</v>
       </c>
       <c r="G51" s="246">
-        <v>34.5887538565201</v>
+        <v>34.595357715568305</v>
       </c>
       <c r="H51" s="246">
-        <v>39.527677845027</v>
+        <v>39.524576319692507</v>
       </c>
       <c r="I51" s="246">
-        <v>9.8684289477434</v>
+        <v>9.8684599067754011</v>
       </c>
       <c r="J51" s="246">
         <v>2.2580448138400868</v>
@@ -23326,28 +23326,28 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>2.8528066758171997</v>
+        <v>2.8524301867207</v>
       </c>
       <c r="C52" s="248">
-        <v>3.4332327021279996</v>
+        <v>3.4330923353973</v>
       </c>
       <c r="D52" s="248">
-        <v>9.0365312358379</v>
+        <v>9.0363051860498</v>
       </c>
       <c r="E52" s="248">
-        <v>21.4856949378166</v>
+        <v>21.485735167990597</v>
       </c>
       <c r="F52" s="248">
-        <v>20.948828985269703</v>
+        <v>20.945998367965302</v>
       </c>
       <c r="G52" s="248">
-        <v>34.5887538565201</v>
+        <v>34.595357715568305</v>
       </c>
       <c r="H52" s="248">
-        <v>39.527677845027</v>
+        <v>39.524576319692507</v>
       </c>
       <c r="I52" s="248">
-        <v>9.8684289477434</v>
+        <v>9.8684599067754011</v>
       </c>
       <c r="J52" s="248">
         <v>2.2580448138400868</v>
@@ -23361,31 +23361,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>22.3271011123795</v>
+        <v>22.3262538329725</v>
       </c>
       <c r="C53" s="248">
-        <v>23.1513873746426</v>
+        <v>23.151040256116502</v>
       </c>
       <c r="D53" s="248">
-        <v>50.695969688405</v>
+        <v>50.6945532657838</v>
       </c>
       <c r="E53" s="248">
-        <v>103.5712039088429</v>
+        <v>103.5678645339782</v>
       </c>
       <c r="F53" s="248">
-        <v>98.362444056874409</v>
+        <v>98.35202934863311</v>
       </c>
       <c r="G53" s="248">
-        <v>202.52896116957811</v>
+        <v>202.5401589588173</v>
       </c>
       <c r="H53" s="248">
-        <v>419.06886026988803</v>
+        <v>419.0648645507855</v>
       </c>
       <c r="I53" s="248">
-        <v>202.84502999223543</v>
+        <v>202.85419282576041</v>
       </c>
       <c r="J53" s="248">
-        <v>28.449042427154154</v>
+        <v>28.449042427152563</v>
       </c>
       <c r="K53" s="248">
         <v>1151</v>
@@ -23396,31 +23396,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2022.1826996645254</v>
+        <v>2022.1818523851187</v>
       </c>
       <c r="C54" s="248">
-        <v>23.1513873746426</v>
+        <v>23.151040256116502</v>
       </c>
       <c r="D54" s="248">
-        <v>50.695969688405</v>
+        <v>50.6945532657838</v>
       </c>
       <c r="E54" s="248">
-        <v>700.54106151518727</v>
+        <v>700.53772214032256</v>
       </c>
       <c r="F54" s="248">
-        <v>728.21088301078191</v>
+        <v>728.20046830254068</v>
       </c>
       <c r="G54" s="248">
-        <v>718.07455051288446</v>
+        <v>718.08574830212376</v>
       </c>
       <c r="H54" s="248">
-        <v>419.06886026988803</v>
+        <v>419.0648645507855</v>
       </c>
       <c r="I54" s="248">
-        <v>202.84502999223543</v>
+        <v>202.85419282576041</v>
       </c>
       <c r="J54" s="248">
-        <v>33.22955797144914</v>
+        <v>33.22955797144823</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -23606,31 +23606,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>3432.32926219837</v>
+        <v>3432.30712815656</v>
       </c>
       <c r="C60" s="246">
-        <v>3246.57622064107</v>
+        <v>3246.6283370508004</v>
       </c>
       <c r="D60" s="246">
-        <v>6767.95705524043</v>
+        <v>6767.92565319652</v>
       </c>
       <c r="E60" s="246">
-        <v>11265.6864795396</v>
+        <v>11265.507900463801</v>
       </c>
       <c r="F60" s="246">
-        <v>7589.19261195343</v>
+        <v>7587.9875222541</v>
       </c>
       <c r="G60" s="246">
-        <v>10245.1792728818</v>
+        <v>10244.5454639496</v>
       </c>
       <c r="H60" s="246">
-        <v>12021.1235490987</v>
+        <v>12023.7806939549</v>
       </c>
       <c r="I60" s="246">
-        <v>4470.22193691314</v>
+        <v>4469.57787681417</v>
       </c>
       <c r="J60" s="246">
-        <v>370.73361153345468</v>
+        <v>370.73942415955389</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -23676,31 +23676,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>3517.8910445047427</v>
+        <v>3517.8689104629325</v>
       </c>
       <c r="C62" s="248">
-        <v>3323.2484923809288</v>
+        <v>3323.3006087906588</v>
       </c>
       <c r="D62" s="248">
-        <v>6891.5852525943219</v>
+        <v>6891.5538505504119</v>
       </c>
       <c r="E62" s="248">
-        <v>11402.392310289992</v>
+        <v>11402.213731214193</v>
       </c>
       <c r="F62" s="248">
-        <v>7664.2169110561981</v>
+        <v>7663.0118213568685</v>
       </c>
       <c r="G62" s="248">
-        <v>10310.519882733532</v>
+        <v>10309.886073801332</v>
       </c>
       <c r="H62" s="248">
-        <v>12052.314430605804</v>
+        <v>12054.971575462005</v>
       </c>
       <c r="I62" s="248">
-        <v>4472.0368206740359</v>
+        <v>4471.392760575065</v>
       </c>
       <c r="J62" s="248">
-        <v>376.79485516044224</v>
+        <v>376.80066778653418</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -23711,31 +23711,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>3680.2430334314395</v>
+        <v>3680.2208993896297</v>
       </c>
       <c r="C63" s="248">
-        <v>3471.6852794797214</v>
+        <v>3471.7373958894518</v>
       </c>
       <c r="D63" s="248">
-        <v>7151.2046588850608</v>
+        <v>7151.1732568411508</v>
       </c>
       <c r="E63" s="248">
-        <v>11784.855297200618</v>
+        <v>11784.67671812482</v>
       </c>
       <c r="F63" s="248">
-        <v>7933.2523204179715</v>
+        <v>7932.0472307186419</v>
       </c>
       <c r="G63" s="248">
-        <v>10629.671025888325</v>
+        <v>10629.037216956125</v>
       </c>
       <c r="H63" s="248">
-        <v>12289.826260517621</v>
+        <v>12292.483405373821</v>
       </c>
       <c r="I63" s="248">
-        <v>4472.0368206740359</v>
+        <v>4471.392760575065</v>
       </c>
       <c r="J63" s="248">
-        <v>404.22530350520537</v>
+        <v>404.23111613129731</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -23851,31 +23851,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>4897.5602406141925</v>
+        <v>4897.5381065723841</v>
       </c>
       <c r="C67" s="248">
-        <v>4223.37236805338</v>
+        <v>4223.42448446311</v>
       </c>
       <c r="D67" s="248">
-        <v>10195.6679006081</v>
+        <v>10195.636498564189</v>
       </c>
       <c r="E67" s="248">
-        <v>14822.968738146205</v>
+        <v>14822.790159070406</v>
       </c>
       <c r="F67" s="248">
-        <v>10002.599508588271</v>
+        <v>10001.394418888942</v>
       </c>
       <c r="G67" s="248">
-        <v>13488.631563384779</v>
+        <v>13487.997754452579</v>
       </c>
       <c r="H67" s="248">
-        <v>15819.324436172672</v>
+        <v>15821.981581028871</v>
       </c>
       <c r="I67" s="248">
-        <v>7265.7800911815812</v>
+        <v>7265.13603108261</v>
       </c>
       <c r="J67" s="248">
-        <v>655.09515325081884</v>
+        <v>655.1009658769035</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -24131,31 +24131,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>5969.4965545558134</v>
+        <v>5969.474420514005</v>
       </c>
       <c r="C75" s="248">
-        <v>5308.1683136101883</v>
+        <v>5308.2204300199191</v>
       </c>
       <c r="D75" s="248">
-        <v>13062.128506471621</v>
+        <v>13062.09710442771</v>
       </c>
       <c r="E75" s="248">
-        <v>18659.862322597859</v>
+        <v>18659.683743522059</v>
       </c>
       <c r="F75" s="248">
-        <v>12164.125600289004</v>
+        <v>12162.920510589674</v>
       </c>
       <c r="G75" s="248">
-        <v>16455.359326256134</v>
+        <v>16454.725517323932</v>
       </c>
       <c r="H75" s="248">
-        <v>18164.107826734831</v>
+        <v>18166.76497159103</v>
       </c>
       <c r="I75" s="248">
-        <v>7596.0118716875413</v>
+        <v>7595.3678115885714</v>
       </c>
       <c r="J75" s="248">
-        <v>986.73967779701343</v>
+        <v>986.74549042309809</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -24306,31 +24306,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>40244.67925422034</v>
+        <v>40244.656272899119</v>
       </c>
       <c r="C80" s="248">
-        <v>5331.3197009848309</v>
+        <v>5331.3714702760353</v>
       </c>
       <c r="D80" s="248">
-        <v>13112.824476160025</v>
+        <v>13112.791657693495</v>
       </c>
       <c r="E80" s="248">
-        <v>19360.403384113044</v>
+        <v>19360.221465662384</v>
       </c>
       <c r="F80" s="248">
-        <v>12892.336483299787</v>
+        <v>12891.120978892215</v>
       </c>
       <c r="G80" s="248">
-        <v>17173.433876769017</v>
+        <v>17172.811265626053</v>
       </c>
       <c r="H80" s="248">
-        <v>18583.176687004718</v>
+        <v>18585.829836141813</v>
       </c>
       <c r="I80" s="248">
-        <v>7798.8569016797774</v>
+        <v>7798.2220044143323</v>
       </c>
       <c r="J80" s="248">
-        <v>4691.9692357684544</v>
+        <v>4691.9750483945827</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -24686,31 +24686,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>27598.420327623095</v>
+        <v>27598.397346301881</v>
       </c>
       <c r="C94" s="248">
-        <v>-5555.94828118278</v>
+        <v>-5555.8965118915758</v>
       </c>
       <c r="D94" s="248">
-        <v>-3912.4727157695834</v>
+        <v>-3912.5055342361143</v>
       </c>
       <c r="E94" s="248">
-        <v>7119.4928113720935</v>
+        <v>7119.3108929214332</v>
       </c>
       <c r="F94" s="248">
-        <v>6004.0791594535367</v>
+        <v>6002.8636550459651</v>
       </c>
       <c r="G94" s="248">
-        <v>10599.076995628708</v>
+        <v>10598.454384485744</v>
       </c>
       <c r="H94" s="248">
-        <v>10595.980813753</v>
+        <v>10598.633962890093</v>
       </c>
       <c r="I94" s="248">
-        <v>-42722.785013144479</v>
+        <v>-42723.419910409917</v>
       </c>
       <c r="J94" s="248">
-        <v>5024.1559022664151</v>
+        <v>5024.1617148924925</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
@@ -24900,31 +24900,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>39923.912943387062</v>
+        <v>39923.897085459765</v>
       </c>
       <c r="C9" s="231">
-        <v>5147.1597462976006</v>
+        <v>5147.1907071424366</v>
       </c>
       <c r="D9" s="231">
-        <v>12673.576940043211</v>
+        <v>12673.553661402117</v>
       </c>
       <c r="E9" s="231">
-        <v>18781.963042486244</v>
+        <v>18781.730577867154</v>
       </c>
       <c r="F9" s="231">
-        <v>12650.275874079169</v>
+        <v>12649.095109331012</v>
       </c>
       <c r="G9" s="231">
-        <v>17156.069447458845</v>
+        <v>17155.371760307225</v>
       </c>
       <c r="H9" s="231">
-        <v>19417.323322631364</v>
+        <v>19420.139186947526</v>
       </c>
       <c r="I9" s="231">
-        <v>8725.6356550532964</v>
+        <v>8724.9354142610882</v>
       </c>
       <c r="J9" s="231">
-        <v>4713.083028563211</v>
+        <v>4713.0864972816489</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -24950,28 +24950,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>39923.912943387062</v>
+        <v>39923.897085459765</v>
       </c>
       <c r="C11" s="231">
-        <v>45071.072689684661</v>
+        <v>45071.0877926022</v>
       </c>
       <c r="D11" s="231">
-        <v>57744.649629727872</v>
+        <v>57744.641454004319</v>
       </c>
       <c r="E11" s="231">
-        <v>76526.61267221412</v>
+        <v>76526.372031871477</v>
       </c>
       <c r="F11" s="231">
-        <v>89176.888546293281</v>
+        <v>89175.467141202491</v>
       </c>
       <c r="G11" s="231">
-        <v>106332.95799375212</v>
+        <v>106330.83890150972</v>
       </c>
       <c r="H11" s="231">
-        <v>125750.28131638348</v>
+        <v>125750.97808845725</v>
       </c>
       <c r="I11" s="231">
-        <v>134475.91697143679</v>
+        <v>134475.91350271835</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -25088,31 +25088,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>27266.35266370132</v>
+        <v>27266.336805774023</v>
       </c>
       <c r="C15" s="231">
-        <v>-5745.3043770695</v>
+        <v>-5745.2734162246643</v>
       </c>
       <c r="D15" s="231">
-        <v>-4357.5234722409</v>
+        <v>-4357.5467508819947</v>
       </c>
       <c r="E15" s="231">
-        <v>6512.0914513827356</v>
+        <v>6511.8589867636456</v>
       </c>
       <c r="F15" s="231">
-        <v>5747.2656700262287</v>
+        <v>5746.0849052780723</v>
       </c>
       <c r="G15" s="231">
-        <v>10565.858233771056</v>
+        <v>10565.160546619436</v>
       </c>
       <c r="H15" s="231">
-        <v>11399.010694722214</v>
+        <v>11401.826559038376</v>
       </c>
       <c r="I15" s="231">
-        <v>-41814.478492799062</v>
+        <v>-41815.178733591267</v>
       </c>
       <c r="J15" s="231">
-        <v>-9573.2723714940948</v>
+        <v>-9573.2689027756569</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -25121,31 +25121,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.19589445045011689</v>
+        <v>0.19589433651922225</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.041277000172926737</v>
+        <v>-0.041276777735486742</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.0313065218676828</v>
+        <v>-0.031306689112516037</v>
       </c>
       <c r="E16" s="236">
-        <v>0.046785963340369829</v>
+        <v>0.046784293203943166</v>
       </c>
       <c r="F16" s="237">
-        <v>0.041291091034681114</v>
+        <v>0.041282607858940522</v>
       </c>
       <c r="G16" s="236">
-        <v>0.075910152625358732</v>
+        <v>0.0759051401089126</v>
       </c>
       <c r="H16" s="236">
-        <v>0.081895916306045841</v>
+        <v>0.081916146815038379</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.3004151081823927</v>
+        <v>-0.30042013904540782</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.068778943533570142</v>
+        <v>-0.068778918612646525</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -25154,28 +25154,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>27266.35266370132</v>
+        <v>27266.336805774023</v>
       </c>
       <c r="C17" s="231">
-        <v>21521.04828663182</v>
+        <v>21521.063389549359</v>
       </c>
       <c r="D17" s="231">
-        <v>17163.524814390919</v>
+        <v>17163.516638667366</v>
       </c>
       <c r="E17" s="231">
-        <v>23675.616265773657</v>
+        <v>23675.375625431014</v>
       </c>
       <c r="F17" s="231">
-        <v>29422.88193579988</v>
+        <v>29421.46053070909</v>
       </c>
       <c r="G17" s="231">
-        <v>39988.740169570927</v>
+        <v>39986.621077328527</v>
       </c>
       <c r="H17" s="231">
-        <v>51387.750864293135</v>
+        <v>51388.447636366909</v>
       </c>
       <c r="I17" s="231">
-        <v>9573.2723714940948</v>
+        <v>9573.2689027756569</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -25187,28 +25187,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.19589445045011689</v>
+        <v>0.19589433651922225</v>
       </c>
       <c r="C18" s="236">
-        <v>0.15461745027719015</v>
+        <v>0.15461755878373548</v>
       </c>
       <c r="D18" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="E18" s="236">
-        <v>0.17009689174987719</v>
+        <v>0.17009516287516266</v>
       </c>
       <c r="F18" s="237">
-        <v>0.21138798278455828</v>
+        <v>0.21137777073410319</v>
       </c>
       <c r="G18" s="236">
-        <v>0.28729813540991694</v>
+        <v>0.28728291084301583</v>
       </c>
       <c r="H18" s="236">
-        <v>0.36919405171596276</v>
+        <v>0.36919905765805422</v>
       </c>
       <c r="I18" s="236">
-        <v>0.068778943533570142</v>
+        <v>0.068778918612646525</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -25220,31 +25220,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.1541554660783557</v>
+        <v>3.1541542132360267</v>
       </c>
       <c r="C19" s="236">
-        <v>0.47254319022778657</v>
+        <v>0.47254603263740896</v>
       </c>
       <c r="D19" s="236">
-        <v>0.74414316357985144</v>
+        <v>0.74414179674855274</v>
       </c>
       <c r="E19" s="236">
-        <v>1.5307383539453212</v>
+        <v>1.5307194079753195</v>
       </c>
       <c r="F19" s="237">
-        <v>1.8325738337532598</v>
+        <v>1.8324027830502689</v>
       </c>
       <c r="G19" s="236">
-        <v>2.6032654934982804</v>
+        <v>2.603159626306927</v>
       </c>
       <c r="H19" s="236">
-        <v>2.4216221321984812</v>
+        <v>2.421973311361334</v>
       </c>
       <c r="I19" s="236">
-        <v>0.17264772353950217</v>
+        <v>0.1726338683908937</v>
       </c>
       <c r="J19" s="236">
-        <v>0.32990100670072264</v>
+        <v>0.32990124950011696</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -25253,28 +25253,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.1541554660783557</v>
+        <v>3.1541542132360267</v>
       </c>
       <c r="C20" s="236">
-        <v>1.9138439909150156</v>
+        <v>1.913844632227198</v>
       </c>
       <c r="D20" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="E20" s="236">
-        <v>1.4479691562236758</v>
+        <v>1.4479646030390814</v>
       </c>
       <c r="F20" s="237">
-        <v>1.4924001519696075</v>
+        <v>1.4923763643581749</v>
       </c>
       <c r="G20" s="236">
-        <v>1.6027464258534945</v>
+        <v>1.6027144849803952</v>
       </c>
       <c r="H20" s="236">
-        <v>1.6910436015541563</v>
+        <v>1.691052971489116</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0766458740898308</v>
+        <v>1.0766458463184536</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -25317,28 +25317,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -25348,28 +25348,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -25670,31 +25670,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>18.399361280521703</v>
+        <v>18.3991206311357</v>
       </c>
       <c r="C49" s="246">
-        <v>18.644258579916098</v>
+        <v>18.644209097227797</v>
       </c>
       <c r="D49" s="246">
-        <v>39.2591318268708</v>
+        <v>39.2584572773248</v>
       </c>
       <c r="E49" s="246">
-        <v>77.5355862464166</v>
+        <v>77.532712437149812</v>
       </c>
       <c r="F49" s="246">
-        <v>73.122503126635507</v>
+        <v>73.1162222747701</v>
       </c>
       <c r="G49" s="246">
-        <v>159.383396120389</v>
+        <v>159.37936275118602</v>
       </c>
       <c r="H49" s="246">
-        <v>384.85638053763796</v>
+        <v>384.878350766021</v>
       </c>
       <c r="I49" s="246">
-        <v>209.608384668299</v>
+        <v>209.60056715187</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613313357</v>
+        <v>26.190997613314835</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -25705,31 +25705,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>18.399361280521703</v>
+        <v>18.3991206311357</v>
       </c>
       <c r="C50" s="248">
-        <v>18.644258579916098</v>
+        <v>18.644209097227797</v>
       </c>
       <c r="D50" s="248">
-        <v>39.2591318268708</v>
+        <v>39.2584572773248</v>
       </c>
       <c r="E50" s="248">
-        <v>77.5355862464166</v>
+        <v>77.532712437149812</v>
       </c>
       <c r="F50" s="248">
-        <v>73.122503126635507</v>
+        <v>73.1162222747701</v>
       </c>
       <c r="G50" s="248">
-        <v>159.383396120389</v>
+        <v>159.37936275118602</v>
       </c>
       <c r="H50" s="248">
-        <v>384.85638053763796</v>
+        <v>384.878350766021</v>
       </c>
       <c r="I50" s="248">
-        <v>209.608384668299</v>
+        <v>209.60056715187</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613313357</v>
+        <v>26.190997613314835</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -25740,28 +25740,28 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>2.7237099727824003</v>
+        <v>2.7234149259003</v>
       </c>
       <c r="C51" s="246">
-        <v>3.4185599998044998</v>
+        <v>3.4184350589288</v>
       </c>
       <c r="D51" s="246">
-        <v>9.7435495797727</v>
+        <v>9.7436221943552983</v>
       </c>
       <c r="E51" s="246">
-        <v>22.1406169713239</v>
+        <v>22.140327331099</v>
       </c>
       <c r="F51" s="246">
-        <v>19.2592759196908</v>
+        <v>19.2552883491189</v>
       </c>
       <c r="G51" s="246">
-        <v>33.7898406845784</v>
+        <v>33.7933732423661</v>
       </c>
       <c r="H51" s="246">
-        <v>39.5646625563926</v>
+        <v>39.567256616977204</v>
       </c>
       <c r="I51" s="246">
-        <v>11.1017395018145</v>
+        <v>11.1002374674142</v>
       </c>
       <c r="J51" s="246">
         <v>2.2580448138402005</v>
@@ -25775,28 +25775,28 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>2.7237099727824003</v>
+        <v>2.7234149259003</v>
       </c>
       <c r="C52" s="248">
-        <v>3.4185599998044998</v>
+        <v>3.4184350589288</v>
       </c>
       <c r="D52" s="248">
-        <v>9.7435495797727</v>
+        <v>9.7436221943552983</v>
       </c>
       <c r="E52" s="248">
-        <v>22.1406169713239</v>
+        <v>22.140327331099</v>
       </c>
       <c r="F52" s="248">
-        <v>19.2592759196908</v>
+        <v>19.2552883491189</v>
       </c>
       <c r="G52" s="248">
-        <v>33.7898406845784</v>
+        <v>33.7933732423661</v>
       </c>
       <c r="H52" s="248">
-        <v>39.5646625563926</v>
+        <v>39.567256616977204</v>
       </c>
       <c r="I52" s="248">
-        <v>11.1017395018145</v>
+        <v>11.1002374674142</v>
       </c>
       <c r="J52" s="248">
         <v>2.2580448138402005</v>
@@ -25810,31 +25810,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>21.1230712533041</v>
+        <v>21.122535557036</v>
       </c>
       <c r="C53" s="248">
-        <v>22.0628185797206</v>
+        <v>22.062644156156598</v>
       </c>
       <c r="D53" s="248">
-        <v>49.0026814066435</v>
+        <v>49.002079471680105</v>
       </c>
       <c r="E53" s="248">
-        <v>99.6762032177405</v>
+        <v>99.673039768248813</v>
       </c>
       <c r="F53" s="248">
-        <v>92.381779046326315</v>
+        <v>92.371510623889</v>
       </c>
       <c r="G53" s="248">
-        <v>193.17323680496739</v>
+        <v>193.1727359935521</v>
       </c>
       <c r="H53" s="248">
-        <v>424.42104309403061</v>
+        <v>424.44560738299822</v>
       </c>
       <c r="I53" s="248">
-        <v>220.71012417011349</v>
+        <v>220.70080461928421</v>
       </c>
       <c r="J53" s="248">
-        <v>28.449042427153472</v>
+        <v>28.449042427154836</v>
       </c>
       <c r="K53" s="248">
         <v>1151</v>
@@ -25845,31 +25845,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2020.9786698054502</v>
+        <v>2020.9781341091821</v>
       </c>
       <c r="C54" s="248">
-        <v>22.0628185797206</v>
+        <v>22.062644156156598</v>
       </c>
       <c r="D54" s="248">
-        <v>49.0026814066435</v>
+        <v>49.002079471680105</v>
       </c>
       <c r="E54" s="248">
-        <v>696.64606082408488</v>
+        <v>696.64289737459319</v>
       </c>
       <c r="F54" s="248">
-        <v>722.23021800023389</v>
+        <v>722.21994957779657</v>
       </c>
       <c r="G54" s="248">
-        <v>708.71882614827382</v>
+        <v>708.71832533685847</v>
       </c>
       <c r="H54" s="248">
-        <v>424.42104309403061</v>
+        <v>424.44560738299822</v>
       </c>
       <c r="I54" s="248">
-        <v>220.71012417011349</v>
+        <v>220.70080461928421</v>
       </c>
       <c r="J54" s="248">
-        <v>33.229557971447321</v>
+        <v>33.229557971450049</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -26055,31 +26055,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>3113.5570393344</v>
+        <v>3113.54171710337</v>
       </c>
       <c r="C60" s="246">
-        <v>3064.85591846881</v>
+        <v>3064.88705373721</v>
       </c>
       <c r="D60" s="246">
-        <v>6333.54102650243</v>
+        <v>6333.5183497963</v>
       </c>
       <c r="E60" s="246">
-        <v>10700.782704871399</v>
+        <v>10700.5534037018</v>
       </c>
       <c r="F60" s="246">
-        <v>7358.81631700598</v>
+        <v>7357.64582068026</v>
       </c>
       <c r="G60" s="246">
-        <v>10241.0980744079</v>
+        <v>10240.4008880677</v>
       </c>
       <c r="H60" s="246">
-        <v>12862.8914775098</v>
+        <v>12865.682777537</v>
       </c>
       <c r="I60" s="246">
-        <v>5342.9129208001905</v>
+        <v>5342.22199955881</v>
       </c>
       <c r="J60" s="246">
-        <v>390.54452109908743</v>
+        <v>390.54798981755448</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -26125,31 +26125,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>3198.939852688397</v>
+        <v>3198.9245304573669</v>
       </c>
       <c r="C62" s="248">
-        <v>3141.3123787816862</v>
+        <v>3141.343514050086</v>
       </c>
       <c r="D62" s="248">
-        <v>6456.9038213790718</v>
+        <v>6456.8811446729414</v>
       </c>
       <c r="E62" s="248">
-        <v>10837.36590682715</v>
+        <v>10837.136605657552</v>
       </c>
       <c r="F62" s="248">
-        <v>7433.9709571605663</v>
+        <v>7432.8004608348456</v>
       </c>
       <c r="G62" s="248">
-        <v>10306.757193715992</v>
+        <v>10306.060007375792</v>
       </c>
       <c r="H62" s="248">
-        <v>12894.360872171978</v>
+        <v>12897.152172199176</v>
       </c>
       <c r="I62" s="248">
-        <v>5344.7686001166721</v>
+        <v>5344.0776788752919</v>
       </c>
       <c r="J62" s="248">
-        <v>396.62041715848318</v>
+        <v>396.62388587695023</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -26160,31 +26160,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>3361.2918416150937</v>
+        <v>3361.2765193840637</v>
       </c>
       <c r="C63" s="248">
-        <v>3289.7491658804788</v>
+        <v>3289.7803011488791</v>
       </c>
       <c r="D63" s="248">
-        <v>6716.5232276698107</v>
+        <v>6716.50055096368</v>
       </c>
       <c r="E63" s="248">
-        <v>11216.776981658717</v>
+        <v>11216.547680489119</v>
       </c>
       <c r="F63" s="248">
-        <v>7701.8818878887514</v>
+        <v>7700.7113915630307</v>
       </c>
       <c r="G63" s="248">
-        <v>10626.394161519675</v>
+        <v>10625.696975179475</v>
       </c>
       <c r="H63" s="248">
-        <v>13135.489046170795</v>
+        <v>13138.280346197995</v>
       </c>
       <c r="I63" s="248">
-        <v>5344.7686001166721</v>
+        <v>5344.0776788752919</v>
       </c>
       <c r="J63" s="248">
-        <v>424.12508748000255</v>
+        <v>424.1285561984696</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -26300,31 +26300,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>4578.2610362849691</v>
+        <v>4578.2457140539391</v>
       </c>
       <c r="C67" s="248">
-        <v>4040.5835954229005</v>
+        <v>4040.6147306913008</v>
       </c>
       <c r="D67" s="248">
-        <v>9758.2498637874487</v>
+        <v>9758.2271870813183</v>
       </c>
       <c r="E67" s="248">
-        <v>14248.506638652334</v>
+        <v>14248.277337482736</v>
       </c>
       <c r="F67" s="248">
-        <v>9766.4778935777667</v>
+        <v>9765.3073972520469</v>
       </c>
       <c r="G67" s="248">
-        <v>13480.348535846439</v>
+        <v>13479.651349506239</v>
       </c>
       <c r="H67" s="248">
-        <v>16647.726224593338</v>
+        <v>16650.517524620536</v>
       </c>
       <c r="I67" s="248">
-        <v>8174.6536961565762</v>
+        <v>8173.962774915196</v>
       </c>
       <c r="J67" s="248">
-        <v>676.19251567823812</v>
+        <v>676.19598439669062</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -26580,31 +26580,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>5649.9342735816081</v>
+        <v>5649.918951350578</v>
       </c>
       <c r="C75" s="248">
-        <v>5125.09692771788</v>
+        <v>5125.1280629862795</v>
       </c>
       <c r="D75" s="248">
-        <v>12624.574258636569</v>
+        <v>12624.551581930438</v>
       </c>
       <c r="E75" s="248">
-        <v>18085.316981662159</v>
+        <v>18085.087680492561</v>
       </c>
       <c r="F75" s="248">
-        <v>11928.045656078935</v>
+        <v>11926.875159753214</v>
       </c>
       <c r="G75" s="248">
-        <v>16447.350621310568</v>
+        <v>16446.653434970369</v>
       </c>
       <c r="H75" s="248">
-        <v>18992.902279537331</v>
+        <v>18995.69357956453</v>
       </c>
       <c r="I75" s="248">
-        <v>8504.9255308831835</v>
+        <v>8504.2346096418041</v>
       </c>
       <c r="J75" s="248">
-        <v>1007.8534705917846</v>
+        <v>1007.8569393102371</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -26755,31 +26755,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>39923.912943387062</v>
+        <v>39923.897085459765</v>
       </c>
       <c r="C80" s="248">
-        <v>5147.1597462976006</v>
+        <v>5147.1907071424366</v>
       </c>
       <c r="D80" s="248">
-        <v>12673.576940043211</v>
+        <v>12673.553661402117</v>
       </c>
       <c r="E80" s="248">
-        <v>18781.963042486244</v>
+        <v>18781.730577867154</v>
       </c>
       <c r="F80" s="248">
-        <v>12650.275874079169</v>
+        <v>12649.095109331012</v>
       </c>
       <c r="G80" s="248">
-        <v>17156.069447458845</v>
+        <v>17155.371760307225</v>
       </c>
       <c r="H80" s="248">
-        <v>19417.323322631364</v>
+        <v>19420.139186947526</v>
       </c>
       <c r="I80" s="248">
-        <v>8725.6356550532964</v>
+        <v>8724.9354142610882</v>
       </c>
       <c r="J80" s="248">
-        <v>4713.083028563211</v>
+        <v>4713.0864972816489</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -27135,31 +27135,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>27266.352663701316</v>
+        <v>27266.336805774019</v>
       </c>
       <c r="C94" s="248">
-        <v>-5745.3043770695</v>
+        <v>-5745.2734162246643</v>
       </c>
       <c r="D94" s="248">
-        <v>-4357.5234722408986</v>
+        <v>-4357.546750881992</v>
       </c>
       <c r="E94" s="248">
-        <v>6512.0914513827338</v>
+        <v>6511.8589867636447</v>
       </c>
       <c r="F94" s="248">
-        <v>5747.2656700262278</v>
+        <v>5746.0849052780713</v>
       </c>
       <c r="G94" s="248">
-        <v>10565.858233771056</v>
+        <v>10565.160546619438</v>
       </c>
       <c r="H94" s="248">
-        <v>11399.010694722212</v>
+        <v>11401.826559038378</v>
       </c>
       <c r="I94" s="248">
-        <v>-41814.478492799055</v>
+        <v>-41815.178733591267</v>
       </c>
       <c r="J94" s="248">
-        <v>5176.7276285059052</v>
+        <v>5176.7310972243722</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
@@ -27346,31 +27346,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>40393.518804625128</v>
+        <v>40393.476348628239</v>
       </c>
       <c r="C9" s="231">
-        <v>5470.9634341195069</v>
+        <v>5470.94913684681</v>
       </c>
       <c r="D9" s="231">
-        <v>13625.335497640692</v>
+        <v>13625.332648159172</v>
       </c>
       <c r="E9" s="231">
-        <v>20443.939103403554</v>
+        <v>20443.643166103837</v>
       </c>
       <c r="F9" s="231">
-        <v>13788.577861235373</v>
+        <v>13786.922903307341</v>
       </c>
       <c r="G9" s="231">
-        <v>18098.74541335406</v>
+        <v>18098.020636369278</v>
       </c>
       <c r="H9" s="231">
-        <v>17144.641614838813</v>
+        <v>17148.091019319505</v>
       </c>
       <c r="I9" s="231">
-        <v>5564.2248890389556</v>
+        <v>5563.4981788200093</v>
       </c>
       <c r="J9" s="231">
-        <v>4659.0533817439282</v>
+        <v>4659.0659624458058</v>
       </c>
       <c r="K9" s="231">
         <v>139189</v>
@@ -27396,28 +27396,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>40393.518804625128</v>
+        <v>40393.476348628239</v>
       </c>
       <c r="C11" s="231">
-        <v>45864.482238744633</v>
+        <v>45864.425485475047</v>
       </c>
       <c r="D11" s="231">
-        <v>59489.817736385325</v>
+        <v>59489.758133634219</v>
       </c>
       <c r="E11" s="231">
-        <v>79933.756839788883</v>
+        <v>79933.401299738063</v>
       </c>
       <c r="F11" s="231">
-        <v>93722.334701024258</v>
+        <v>93720.3242030454</v>
       </c>
       <c r="G11" s="231">
-        <v>111821.08011437832</v>
+        <v>111818.34483941467</v>
       </c>
       <c r="H11" s="231">
-        <v>128965.72172921713</v>
+        <v>128966.43585873417</v>
       </c>
       <c r="I11" s="231">
-        <v>134529.94661825607</v>
+        <v>134529.93403755419</v>
       </c>
       <c r="J11" s="231">
         <v>139189</v>
@@ -27534,31 +27534,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>27747.259878027886</v>
+        <v>27747.217422030997</v>
       </c>
       <c r="C15" s="231">
-        <v>-5416.3045282839739</v>
+        <v>-5416.3188255566711</v>
       </c>
       <c r="D15" s="231">
-        <v>-3392.0886183637194</v>
+        <v>-3392.0914678452391</v>
       </c>
       <c r="E15" s="231">
-        <v>8215.6174427213537</v>
+        <v>8215.3215054216362</v>
       </c>
       <c r="F15" s="231">
-        <v>6907.6369898407629</v>
+        <v>6905.98203191273</v>
       </c>
       <c r="G15" s="231">
-        <v>11539.077549256192</v>
+        <v>11538.35277227141</v>
       </c>
       <c r="H15" s="231">
-        <v>9222.2363044061058</v>
+        <v>9225.6857088867982</v>
       </c>
       <c r="I15" s="231">
-        <v>-44924.457852288375</v>
+        <v>-44925.184562507318</v>
       </c>
       <c r="J15" s="231">
-        <v>-9898.9771653162315</v>
+        <v>-9898.964584614354</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -27567,31 +27567,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.19934951668614534</v>
+        <v>0.19934921166206379</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.038913308726149148</v>
+        <v>-0.038913411444558628</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.024370378538273282</v>
+        <v>-0.024370399010304258</v>
       </c>
       <c r="E16" s="236">
-        <v>0.0590249045737907</v>
+        <v>0.059022778419427081</v>
       </c>
       <c r="F16" s="237">
-        <v>0.049627750683177284</v>
+        <v>0.0496158606780186</v>
       </c>
       <c r="G16" s="236">
-        <v>0.0829022232306877</v>
+        <v>0.0828970160879912</v>
       </c>
       <c r="H16" s="236">
-        <v>0.066256933410011612</v>
+        <v>0.066281715572974867</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.32275867958163629</v>
+        <v>-0.32276390061360677</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.071118961737753936</v>
+        <v>-0.071118871352005938</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -27600,28 +27600,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>27747.259878027886</v>
+        <v>27747.217422030997</v>
       </c>
       <c r="C17" s="231">
-        <v>22330.955349743912</v>
+        <v>22330.898596474326</v>
       </c>
       <c r="D17" s="231">
-        <v>18938.866731380193</v>
+        <v>18938.807128629087</v>
       </c>
       <c r="E17" s="231">
-        <v>27154.484174101548</v>
+        <v>27154.128634050729</v>
       </c>
       <c r="F17" s="231">
-        <v>34062.121163942313</v>
+        <v>34060.110665963453</v>
       </c>
       <c r="G17" s="231">
-        <v>45601.198713198508</v>
+        <v>45598.463438234859</v>
       </c>
       <c r="H17" s="231">
-        <v>54823.435017604614</v>
+        <v>54824.149147121658</v>
       </c>
       <c r="I17" s="231">
-        <v>9898.9771653162315</v>
+        <v>9898.964584614354</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -27633,28 +27633,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.19934951668614534</v>
+        <v>0.19934921166206379</v>
       </c>
       <c r="C18" s="236">
-        <v>0.16043620795999619</v>
+        <v>0.16043580021750514</v>
       </c>
       <c r="D18" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="E18" s="236">
-        <v>0.19509073399551366</v>
+        <v>0.19508817962662803</v>
       </c>
       <c r="F18" s="237">
-        <v>0.24471848467869095</v>
+        <v>0.24470404030464657</v>
       </c>
       <c r="G18" s="236">
-        <v>0.32762070790937869</v>
+        <v>0.32760105639263776</v>
       </c>
       <c r="H18" s="236">
-        <v>0.39387764131939029</v>
+        <v>0.39388277196561261</v>
       </c>
       <c r="I18" s="236">
-        <v>0.071118961737753936</v>
+        <v>0.071118871352005938</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -27666,31 +27666,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>3.1941081579209691</v>
+        <v>3.1941048007228336</v>
       </c>
       <c r="C19" s="236">
-        <v>0.50251022138998891</v>
+        <v>0.50250890817966409</v>
       </c>
       <c r="D19" s="236">
-        <v>0.80066967860467475</v>
+        <v>0.80066951115973706</v>
       </c>
       <c r="E19" s="236">
-        <v>1.6718515975202941</v>
+        <v>1.6718273965458734</v>
       </c>
       <c r="F19" s="237">
-        <v>2.003879719204845</v>
+        <v>2.0036392058856691</v>
       </c>
       <c r="G19" s="236">
-        <v>2.7590947877729359</v>
+        <v>2.75898429788232</v>
       </c>
       <c r="H19" s="236">
-        <v>2.16407024672945</v>
+        <v>2.1645056453673046</v>
       </c>
       <c r="I19" s="236">
-        <v>0.11020736899686194</v>
+        <v>0.1101929754698478</v>
       </c>
       <c r="J19" s="236">
-        <v>0.32003321923821454</v>
+        <v>0.3200340834143019</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -27699,28 +27699,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>3.1941081579209691</v>
+        <v>3.1941048007228336</v>
       </c>
       <c r="C20" s="236">
-        <v>1.9488996466645687</v>
+        <v>1.9488972350723812</v>
       </c>
       <c r="D20" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="E20" s="236">
-        <v>1.5144914433759356</v>
+        <v>1.5144847070184062</v>
       </c>
       <c r="F20" s="237">
-        <v>1.570935287430222</v>
+        <v>1.5709015882887061</v>
       </c>
       <c r="G20" s="236">
-        <v>1.6886330471800883</v>
+        <v>1.6885917412323008</v>
       </c>
       <c r="H20" s="236">
-        <v>1.7394354483676573</v>
+        <v>1.7394450802464234</v>
       </c>
       <c r="I20" s="236">
-        <v>1.079426303179436</v>
+        <v>1.0794262022358108</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -27763,28 +27763,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.1873581855370644</v>
+        <v>0.18736583606654716</v>
       </c>
       <c r="C23" s="236">
-        <v>0.18385760867807219</v>
+        <v>0.18385454250764532</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16990847156384423</v>
+        <v>0.16990691762029556</v>
       </c>
       <c r="E23" s="236">
-        <v>0.14972700026560143</v>
+        <v>0.14972659422228371</v>
       </c>
       <c r="F23" s="236">
-        <v>0.13861484782359174</v>
+        <v>0.13861364587924827</v>
       </c>
       <c r="G23" s="236">
-        <v>0.13025454116827287</v>
+        <v>0.13025451221126805</v>
       </c>
       <c r="H23" s="236">
-        <v>0.12331092840950735</v>
+        <v>0.12331086967121946</v>
       </c>
       <c r="I23" s="236">
-        <v>0.13606582942172293</v>
+        <v>0.1360654012072009</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -27794,28 +27794,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.66155613153376</v>
+        <v>1.6615831453238128</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6491956996778836</v>
+        <v>1.6491848731221055</v>
       </c>
       <c r="D24" s="236">
-        <v>1.590517977244186</v>
+        <v>1.5905125765034658</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5154014681398618</v>
+        <v>1.5154000704272133</v>
       </c>
       <c r="F24" s="236">
-        <v>1.4761978629655579</v>
+        <v>1.4761937338023641</v>
       </c>
       <c r="G24" s="236">
-        <v>1.4470050533432579</v>
+        <v>1.44700495396916</v>
       </c>
       <c r="H24" s="236">
-        <v>1.4229435456137052</v>
+        <v>1.4229433441475408</v>
       </c>
       <c r="I24" s="236">
-        <v>1.4670387811383907</v>
+        <v>1.4670373113146349</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -28116,31 +28116,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="246">
-        <v>20.7513028552794</v>
+        <v>20.749989173021497</v>
       </c>
       <c r="C49" s="246">
-        <v>21.257751255457</v>
+        <v>21.256575011088298</v>
       </c>
       <c r="D49" s="246">
-        <v>46.3007068208965</v>
+        <v>46.296551959239096</v>
       </c>
       <c r="E49" s="246">
-        <v>95.4769448272452</v>
+        <v>95.4637061737043</v>
       </c>
       <c r="F49" s="246">
-        <v>98.7454738312718</v>
+        <v>98.710665700097209</v>
       </c>
       <c r="G49" s="246">
-        <v>224.903488932238</v>
+        <v>224.939076242994</v>
       </c>
       <c r="H49" s="246">
-        <v>313.800137684423</v>
+        <v>313.82565019710404</v>
       </c>
       <c r="I49" s="246">
-        <v>159.57319617987702</v>
+        <v>159.566787929438</v>
       </c>
       <c r="J49" s="246">
-        <v>26.190997613311993</v>
+        <v>26.190997613313698</v>
       </c>
       <c r="K49" s="246">
         <v>1007</v>
@@ -28151,31 +28151,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="248">
-        <v>20.7513028552794</v>
+        <v>20.749989173021497</v>
       </c>
       <c r="C50" s="248">
-        <v>21.257751255457</v>
+        <v>21.256575011088298</v>
       </c>
       <c r="D50" s="248">
-        <v>46.3007068208965</v>
+        <v>46.296551959239096</v>
       </c>
       <c r="E50" s="248">
-        <v>95.4769448272452</v>
+        <v>95.4637061737043</v>
       </c>
       <c r="F50" s="248">
-        <v>98.7454738312718</v>
+        <v>98.710665700097209</v>
       </c>
       <c r="G50" s="248">
-        <v>224.903488932238</v>
+        <v>224.939076242994</v>
       </c>
       <c r="H50" s="248">
-        <v>313.800137684423</v>
+        <v>313.82565019710404</v>
       </c>
       <c r="I50" s="248">
-        <v>159.57319617987702</v>
+        <v>159.566787929438</v>
       </c>
       <c r="J50" s="248">
-        <v>26.190997613311993</v>
+        <v>26.190997613313698</v>
       </c>
       <c r="K50" s="248">
         <v>1007</v>
@@ -28186,31 +28186,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>2.9216456035455</v>
+        <v>2.9212386285706002</v>
       </c>
       <c r="C51" s="246">
-        <v>3.686475242426</v>
+        <v>3.6862497341569003</v>
       </c>
       <c r="D51" s="246">
-        <v>9.0744432303648</v>
+        <v>9.0741616301319</v>
       </c>
       <c r="E51" s="246">
-        <v>21.948699666452</v>
+        <v>21.947306536678</v>
       </c>
       <c r="F51" s="246">
-        <v>22.626686636463297</v>
+        <v>22.6214496028283</v>
       </c>
       <c r="G51" s="246">
-        <v>37.1343676667043</v>
+        <v>37.1486378344678</v>
       </c>
       <c r="H51" s="246">
-        <v>32.913895986969</v>
+        <v>32.9057087638788</v>
       </c>
       <c r="I51" s="246">
-        <v>11.4357411532351</v>
+        <v>11.437202455447</v>
       </c>
       <c r="J51" s="246">
-        <v>2.2580448138400016</v>
+        <v>2.2580448138407121</v>
       </c>
       <c r="K51" s="246">
         <v>144</v>
@@ -28221,31 +28221,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>2.9216456035455</v>
+        <v>2.9212386285706002</v>
       </c>
       <c r="C52" s="248">
-        <v>3.686475242426</v>
+        <v>3.6862497341569003</v>
       </c>
       <c r="D52" s="248">
-        <v>9.0744432303648</v>
+        <v>9.0741616301319</v>
       </c>
       <c r="E52" s="248">
-        <v>21.948699666452</v>
+        <v>21.947306536678</v>
       </c>
       <c r="F52" s="248">
-        <v>22.626686636463297</v>
+        <v>22.6214496028283</v>
       </c>
       <c r="G52" s="248">
-        <v>37.1343676667043</v>
+        <v>37.1486378344678</v>
       </c>
       <c r="H52" s="248">
-        <v>32.913895986969</v>
+        <v>32.9057087638788</v>
       </c>
       <c r="I52" s="248">
-        <v>11.4357411532351</v>
+        <v>11.437202455447</v>
       </c>
       <c r="J52" s="248">
-        <v>2.2580448138400016</v>
+        <v>2.2580448138407121</v>
       </c>
       <c r="K52" s="248">
         <v>144</v>
@@ -28256,31 +28256,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>23.672948458824898</v>
+        <v>23.6712278015921</v>
       </c>
       <c r="C53" s="248">
-        <v>24.944226497882998</v>
+        <v>24.942824745245197</v>
       </c>
       <c r="D53" s="248">
-        <v>55.3751500512613</v>
+        <v>55.370713589371</v>
       </c>
       <c r="E53" s="248">
-        <v>117.42564449369719</v>
+        <v>117.4110127103823</v>
       </c>
       <c r="F53" s="248">
-        <v>121.3721604677351</v>
+        <v>121.3321153029255</v>
       </c>
       <c r="G53" s="248">
-        <v>262.03785659894226</v>
+        <v>262.08771407746178</v>
       </c>
       <c r="H53" s="248">
-        <v>346.71403367139203</v>
+        <v>346.73135896098285</v>
       </c>
       <c r="I53" s="248">
-        <v>171.00893733311213</v>
+        <v>171.003990384885</v>
       </c>
       <c r="J53" s="248">
-        <v>28.449042427152108</v>
+        <v>28.449042427154382</v>
       </c>
       <c r="K53" s="248">
         <v>1151</v>
@@ -28291,31 +28291,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>2023.5285470109709</v>
+        <v>2023.526826353738</v>
       </c>
       <c r="C54" s="248">
-        <v>24.944226497882998</v>
+        <v>24.942824745245197</v>
       </c>
       <c r="D54" s="248">
-        <v>55.3751500512613</v>
+        <v>55.370713589371</v>
       </c>
       <c r="E54" s="248">
-        <v>714.39550210004165</v>
+        <v>714.3808703167266</v>
       </c>
       <c r="F54" s="248">
-        <v>751.22059942164276</v>
+        <v>751.180554256833</v>
       </c>
       <c r="G54" s="248">
-        <v>777.58344594224866</v>
+        <v>777.63330342076813</v>
       </c>
       <c r="H54" s="248">
-        <v>346.71403367139203</v>
+        <v>346.73135896098285</v>
       </c>
       <c r="I54" s="248">
-        <v>171.00893733311213</v>
+        <v>171.003990384885</v>
       </c>
       <c r="J54" s="248">
-        <v>33.229557971446411</v>
+        <v>33.22955797144914</v>
       </c>
       <c r="K54" s="248">
         <v>4897.9999999999991</v>
@@ -28501,31 +28501,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>3579.81563024704</v>
+        <v>3579.77489490739</v>
       </c>
       <c r="C60" s="246">
-        <v>3384.33007580088</v>
+        <v>3384.31718028082</v>
       </c>
       <c r="D60" s="246">
-        <v>7274.86747934276</v>
+        <v>7274.86906632313</v>
       </c>
       <c r="E60" s="246">
-        <v>12329.097099091201</v>
+        <v>12328.8157935748</v>
       </c>
       <c r="F60" s="246">
-        <v>8452.91243683904</v>
+        <v>8451.2975240758187</v>
       </c>
       <c r="G60" s="246">
-        <v>11091.5243182175</v>
+        <v>11090.7496837542</v>
       </c>
       <c r="H60" s="246">
-        <v>10586.4179815033</v>
+        <v>10589.8500606944</v>
       </c>
       <c r="I60" s="246">
-        <v>2369.3759224576697</v>
+        <v>2368.65415918695</v>
       </c>
       <c r="J60" s="246">
-        <v>340.65905650061177</v>
+        <v>340.67163720249664</v>
       </c>
       <c r="K60" s="246">
         <v>59409</v>
@@ -28571,31 +28571,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="248">
-        <v>3665.3777780988053</v>
+        <v>3665.3370427591549</v>
       </c>
       <c r="C62" s="248">
-        <v>3461.0031418088943</v>
+        <v>3460.9902462888344</v>
       </c>
       <c r="D62" s="248">
-        <v>7398.4995987665043</v>
+        <v>7398.5011857468744</v>
       </c>
       <c r="E62" s="248">
-        <v>12465.984705456545</v>
+        <v>12465.703399940147</v>
       </c>
       <c r="F62" s="248">
-        <v>8528.0590930737162</v>
+        <v>8526.4441803104946</v>
       </c>
       <c r="G62" s="248">
-        <v>11156.871000364981</v>
+        <v>11156.096365901683</v>
       </c>
       <c r="H62" s="248">
-        <v>10617.394281010309</v>
+        <v>10620.826360201409</v>
       </c>
       <c r="I62" s="248">
-        <v>2371.0972669927428</v>
+        <v>2370.3755037220226</v>
       </c>
       <c r="J62" s="248">
-        <v>346.7131344274967</v>
+        <v>346.72571512937429</v>
       </c>
       <c r="K62" s="248">
         <v>60011</v>
@@ -28606,31 +28606,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>3827.7297670255025</v>
+        <v>3827.6890316858521</v>
       </c>
       <c r="C63" s="248">
-        <v>3609.4399289076873</v>
+        <v>3609.4270333876275</v>
       </c>
       <c r="D63" s="248">
-        <v>7658.1190050572422</v>
+        <v>7658.1205920376133</v>
       </c>
       <c r="E63" s="248">
-        <v>12849.199480861616</v>
+        <v>12848.918175345218</v>
       </c>
       <c r="F63" s="248">
-        <v>8798.32855482806</v>
+        <v>8796.71364206484</v>
       </c>
       <c r="G63" s="248">
-        <v>11477.471436850321</v>
+        <v>11476.696802387021</v>
       </c>
       <c r="H63" s="248">
-        <v>10851.512658232919</v>
+        <v>10854.944737424019</v>
       </c>
       <c r="I63" s="248">
-        <v>2371.0972669927428</v>
+        <v>2370.3755037220226</v>
       </c>
       <c r="J63" s="248">
-        <v>374.10190124391374</v>
+        <v>374.11448194578406</v>
       </c>
       <c r="K63" s="248">
         <v>61817</v>
@@ -28746,31 +28746,31 @@
         <v>68</v>
       </c>
       <c r="B67" s="248">
-        <v>5045.0479319566157</v>
+        <v>5045.0071966169644</v>
       </c>
       <c r="C67" s="248">
-        <v>4361.1914179653022</v>
+        <v>4361.1785224452433</v>
       </c>
       <c r="D67" s="248">
-        <v>10703.368873470303</v>
+        <v>10703.370460450673</v>
       </c>
       <c r="E67" s="248">
-        <v>15892.354813616808</v>
+        <v>15892.07350810041</v>
       </c>
       <c r="F67" s="248">
-        <v>10875.77128378715</v>
+        <v>10874.156371023928</v>
       </c>
       <c r="G67" s="248">
-        <v>14354.368636059135</v>
+        <v>14353.594001595837</v>
       </c>
       <c r="H67" s="248">
-        <v>14453.629330618587</v>
+        <v>14457.061409809687</v>
       </c>
       <c r="I67" s="248">
-        <v>5063.0702664921273</v>
+        <v>5062.3485032214076</v>
       </c>
       <c r="J67" s="248">
-        <v>622.19744603396975</v>
+        <v>622.21002673584735</v>
       </c>
       <c r="K67" s="248">
         <v>81371</v>
@@ -29026,31 +29026,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>6116.9902576141549</v>
+        <v>6116.9495222745045</v>
       </c>
       <c r="C75" s="248">
-        <v>5446.0192076216235</v>
+        <v>5446.0063121015646</v>
       </c>
       <c r="D75" s="248">
-        <v>13569.960347589431</v>
+        <v>13569.961934569803</v>
       </c>
       <c r="E75" s="248">
-        <v>19729.543601303511</v>
+        <v>19729.26229578711</v>
       </c>
       <c r="F75" s="248">
-        <v>13037.35726181373</v>
+        <v>13035.742349050508</v>
       </c>
       <c r="G75" s="248">
-        <v>17321.161967411808</v>
+        <v>17320.38733294851</v>
       </c>
       <c r="H75" s="248">
-        <v>16797.927581167423</v>
+        <v>16801.359660358521</v>
       </c>
       <c r="I75" s="248">
-        <v>5393.2159517058444</v>
+        <v>5392.4941884351247</v>
       </c>
       <c r="J75" s="248">
-        <v>953.82382377247268</v>
+        <v>953.83640447436483</v>
       </c>
       <c r="K75" s="248">
         <v>98366.000000000015</v>
@@ -29201,31 +29201,31 @@
         <v>44</v>
       </c>
       <c r="B80" s="248">
-        <v>40393.518804625128</v>
+        <v>40393.476348628239</v>
       </c>
       <c r="C80" s="248">
-        <v>5470.9634341195069</v>
+        <v>5470.94913684681</v>
       </c>
       <c r="D80" s="248">
-        <v>13625.335497640692</v>
+        <v>13625.332648159172</v>
       </c>
       <c r="E80" s="248">
-        <v>20443.939103403554</v>
+        <v>20443.643166103837</v>
       </c>
       <c r="F80" s="248">
-        <v>13788.577861235373</v>
+        <v>13786.922903307341</v>
       </c>
       <c r="G80" s="248">
-        <v>18098.74541335406</v>
+        <v>18098.020636369278</v>
       </c>
       <c r="H80" s="248">
-        <v>17144.641614838813</v>
+        <v>17148.091019319505</v>
       </c>
       <c r="I80" s="248">
-        <v>5564.2248890389556</v>
+        <v>5563.4981788200093</v>
       </c>
       <c r="J80" s="248">
-        <v>4659.0533817439282</v>
+        <v>4659.0659624458058</v>
       </c>
       <c r="K80" s="248">
         <v>139189</v>
@@ -29581,31 +29581,31 @@
         <v>89</v>
       </c>
       <c r="B94" s="248">
-        <v>27747.25987802789</v>
+        <v>27747.217422030997</v>
       </c>
       <c r="C94" s="248">
-        <v>-5416.304528283973</v>
+        <v>-5416.31882555667</v>
       </c>
       <c r="D94" s="248">
-        <v>-3392.0886183637194</v>
+        <v>-3392.0914678452386</v>
       </c>
       <c r="E94" s="248">
-        <v>8215.6174427213518</v>
+        <v>8215.3215054216344</v>
       </c>
       <c r="F94" s="248">
-        <v>6907.6369898407629</v>
+        <v>6905.9820319127311</v>
       </c>
       <c r="G94" s="248">
-        <v>11539.077549256188</v>
+        <v>11538.352772271408</v>
       </c>
       <c r="H94" s="248">
-        <v>9222.2363044061058</v>
+        <v>9225.6857088867982</v>
       </c>
       <c r="I94" s="248">
-        <v>-44924.457852288375</v>
+        <v>-44925.184562507326</v>
       </c>
       <c r="J94" s="248">
-        <v>4851.0228346837685</v>
+        <v>4851.0354153856679</v>
       </c>
       <c r="K94" s="248">
         <v>14750</v>
